--- a/SO SACH - LA/CONG NO/Bang ke NL, nông lâm sản/Nam 2016/BẢNG KÊ/Tháng 03.xlsx
+++ b/SO SACH - LA/CONG NO/Bang ke NL, nông lâm sản/Nam 2016/BẢNG KÊ/Tháng 03.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NHQ11 90.000" sheetId="1" r:id="rId1"/>
     <sheet name="NHQ11 82.000" sheetId="2" r:id="rId2"/>
+    <sheet name="O.Cheon 02" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
@@ -36,34 +36,51 @@
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
     <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NHQ11 90.000'!$A$6:$L$19</definedName>
+    <definedName name="_Nd1" localSheetId="2">#REF!</definedName>
     <definedName name="_Nd1">#REF!</definedName>
     <definedName name="_NEW2">[1]!OK_thke_thuchi_toan_bo_2_cap</definedName>
     <definedName name="a">[2]!OK_thke_CHI_toan_bo_2_cap</definedName>
+    <definedName name="Bke" localSheetId="2">[3]ds!#REF!</definedName>
     <definedName name="Bke">[3]ds!#REF!</definedName>
+    <definedName name="BKHDDV2SSCT" localSheetId="2">#REF!</definedName>
     <definedName name="BKHDDV2SSCT">#REF!</definedName>
     <definedName name="Bt_add1_Chso">[4]!Bt_add1_Chso</definedName>
+    <definedName name="Btkc" localSheetId="2">#REF!</definedName>
     <definedName name="Btkc">#REF!</definedName>
+    <definedName name="Bust" localSheetId="2">#REF!</definedName>
     <definedName name="Bust">#REF!</definedName>
     <definedName name="Button_Doi_nhom_chtu">[5]!Button_Doi_nhom_chtu</definedName>
+    <definedName name="CgNo" localSheetId="2">#REF!</definedName>
     <definedName name="CgNo">#REF!</definedName>
     <definedName name="Change_ten_thuong_dung">[6]!Change_ten_thuong_dung</definedName>
     <definedName name="chi">[7]Sqt02!#REF!</definedName>
     <definedName name="Chk_tieu_de_thke">[8]!Chk_tieu_de_thke</definedName>
     <definedName name="Chk_Tieude_thke">[5]!Chk_Tieude_thke</definedName>
+    <definedName name="Chso" localSheetId="2">#REF!</definedName>
     <definedName name="Chso">#REF!</definedName>
+    <definedName name="Chtu" localSheetId="2">#REF!</definedName>
     <definedName name="Chtu">#REF!</definedName>
+    <definedName name="Continue" localSheetId="2">#REF!</definedName>
     <definedName name="Continue">#REF!</definedName>
     <definedName name="D_THU">[9]BANRA!$I$9:$I$25</definedName>
     <definedName name="DC">'[10]Danh muc'!$A$3</definedName>
     <definedName name="Dieãn_giaûi">[7]Sqt02!#REF!</definedName>
+    <definedName name="DOANH_SO" localSheetId="2">#REF!</definedName>
     <definedName name="DOANH_SO">#REF!</definedName>
+    <definedName name="DOANHSO_BAN" localSheetId="2">#REF!</definedName>
     <definedName name="DOANHSO_BAN">#REF!</definedName>
+    <definedName name="DOANHSO_MUA" localSheetId="2">#REF!</definedName>
     <definedName name="DOANHSO_MUA">#REF!</definedName>
+    <definedName name="Document_array" localSheetId="2">{"cuc2.xls","Sheet1"}</definedName>
     <definedName name="Document_array">{"cuc2.xls","Sheet1"}</definedName>
     <definedName name="Documents_array">#REF!</definedName>
     <definedName name="Donvi">#REF!</definedName>
@@ -83,8 +100,11 @@
     <definedName name="Dr_Taikh_No">[13]!Dr_Taikh_No</definedName>
     <definedName name="Dr_trang">[5]!Dr_trang</definedName>
     <definedName name="Dr_trang_Chon">[5]!Dr_trang_Chon</definedName>
+    <definedName name="duc" localSheetId="2">#REF!</definedName>
     <definedName name="duc">#REF!</definedName>
+    <definedName name="DUCKY_CO_CD" localSheetId="2">#REF!</definedName>
     <definedName name="DUCKY_CO_CD">#REF!</definedName>
+    <definedName name="DUCKY_NO_CD" localSheetId="2">#REF!</definedName>
     <definedName name="DUCKY_NO_CD">#REF!</definedName>
     <definedName name="DUDKY_CO_CD">#REF!</definedName>
     <definedName name="DUDKY_NO_CD">#REF!</definedName>
@@ -92,8 +112,11 @@
     <definedName name="Field_C2_Change">[14]!Field_C2_Change</definedName>
     <definedName name="Field_Chon_Change">[14]!Field_Chon_Change</definedName>
     <definedName name="Field_Cotlon_change">[14]!Field_Cotlon_change</definedName>
+    <definedName name="GTGT_BAN" localSheetId="2">#REF!</definedName>
     <definedName name="GTGT_BAN">#REF!</definedName>
+    <definedName name="GTGT_MUA" localSheetId="2">#REF!</definedName>
     <definedName name="GTGT_MUA">#REF!</definedName>
+    <definedName name="Hello" localSheetId="2">#REF!</definedName>
     <definedName name="Hello">#REF!</definedName>
     <definedName name="Hoten">#REF!</definedName>
     <definedName name="Leâ_Coâng_Minh">#REF!</definedName>
@@ -101,13 +124,18 @@
     <definedName name="List_trich_lay">[5]!List_trich_lay</definedName>
     <definedName name="List_trich_xoa">[5]!List_trich_xoa</definedName>
     <definedName name="Lke">[16]ds!#REF!</definedName>
+    <definedName name="LOAI_BM" localSheetId="2">#REF!</definedName>
     <definedName name="LOAI_BM">#REF!</definedName>
     <definedName name="Loai_Chtu_change">[14]!Loai_Chtu_change</definedName>
+    <definedName name="LOAI_MB" localSheetId="2">#REF!</definedName>
     <definedName name="LOAI_MB">#REF!</definedName>
     <definedName name="Loai_ngte_change">[17]!Loai_ngte_change</definedName>
+    <definedName name="LoaiPh" localSheetId="2">#REF!</definedName>
     <definedName name="LoaiPh">#REF!</definedName>
+    <definedName name="Loc" localSheetId="2">#REF!</definedName>
     <definedName name="Loc">#REF!</definedName>
     <definedName name="Luu_thke">[8]!Luu_thke</definedName>
+    <definedName name="MATK_CD" localSheetId="2">#REF!</definedName>
     <definedName name="MATK_CD">#REF!</definedName>
     <definedName name="MATK_M">[18]MATK!$A$6:$C$292</definedName>
     <definedName name="ModM.Field_C2_Change">[17]!ModM.Field_C2_Change</definedName>
@@ -126,6 +154,7 @@
     <definedName name="ModP.Xoa_dg_cuoi_chtu_ghi_so">[17]!ModP.Xoa_dg_cuoi_chtu_ghi_so</definedName>
     <definedName name="Muc_change">[14]!Muc_change</definedName>
     <definedName name="NEW">[1]!OK_thke_thuchi_toan_bo_2_cap</definedName>
+    <definedName name="NGAYCTU_B" localSheetId="2">#REF!</definedName>
     <definedName name="NGAYCTU_B">#REF!</definedName>
     <definedName name="NoiDung_1_change">[14]!NoiDung_1_change</definedName>
     <definedName name="OK_Chitiet_VNÑ_1_tieukh_co_Ngte_chua_DCTG">[17]!OK_Chitiet_VNÑ_1_tieukh_co_Ngte_chua_DCTG</definedName>
@@ -149,59 +178,74 @@
     <definedName name="OK_Trich_chtu_1_Don_vi">[14]!OK_Trich_chtu_1_Don_vi</definedName>
     <definedName name="P_TC">[10]Data!$B$5:$C$92</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'NHQ11 82.000'!$5:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'O.Cheon 02'!$11:$13</definedName>
     <definedName name="_xlnm.Print_Titles">#N/A</definedName>
     <definedName name="PS">[10]Data!$B$5:$AI$92</definedName>
+    <definedName name="PSCO_CD" localSheetId="2">#REF!</definedName>
     <definedName name="PSCO_CD">#REF!</definedName>
+    <definedName name="PSNO_CD" localSheetId="2">#REF!</definedName>
     <definedName name="PSNO_CD">#REF!</definedName>
+    <definedName name="SCCR" localSheetId="2">#REF!</definedName>
     <definedName name="SCCR">#REF!</definedName>
     <definedName name="SCDT">#REF!</definedName>
     <definedName name="SCT">[7]Sqt02!#REF!</definedName>
+    <definedName name="SoCai" localSheetId="2">#REF!</definedName>
     <definedName name="SoCai">#REF!</definedName>
+    <definedName name="SOCTU_B" localSheetId="2">#REF!</definedName>
     <definedName name="SOCTU_B">#REF!</definedName>
+    <definedName name="SOCTU_NK" localSheetId="2">#REF!</definedName>
     <definedName name="SOCTU_NK">#REF!</definedName>
     <definedName name="SOCTU_NK_BH">#REF!</definedName>
     <definedName name="Sodu">#REF!</definedName>
     <definedName name="SOTIEN_B">#REF!</definedName>
     <definedName name="SOTIEN_CO_NK">[18]NHATKY!$H$7:$H$125</definedName>
     <definedName name="SOTIEN_NO_NK">[18]NHATKY!$G$7:$G$125</definedName>
+    <definedName name="STT_CT" localSheetId="2">#REF!</definedName>
     <definedName name="STT_CT">#REF!</definedName>
+    <definedName name="STT_NC" localSheetId="2">#REF!</definedName>
     <definedName name="STT_NC">#REF!</definedName>
+    <definedName name="STT_NCT" localSheetId="2">#REF!</definedName>
     <definedName name="STT_NCT">#REF!</definedName>
     <definedName name="STT_PH">#REF!</definedName>
     <definedName name="T">[9]CTGS!$P$6:$P$598</definedName>
+    <definedName name="Taikh" localSheetId="2">#REF!</definedName>
     <definedName name="Taikh">#REF!</definedName>
     <definedName name="Taikh_Co_change">[14]!Taikh_Co_change</definedName>
     <definedName name="Taikh_Co_Drop">[5]!Taikh_Co_Drop</definedName>
     <definedName name="Taikh_No_change">[14]!Taikh_No_change</definedName>
     <definedName name="Taikh_No_Drop">[5]!Taikh_No_Drop</definedName>
     <definedName name="TEN">'[10]Danh muc'!$A$1</definedName>
+    <definedName name="Thke" localSheetId="2">#REF!</definedName>
     <definedName name="Thke">#REF!</definedName>
     <definedName name="thu">[7]Sqt02!#REF!</definedName>
     <definedName name="THUE_BRA">[9]BANRA!$J$9:$J$25</definedName>
+    <definedName name="THUE_GTGT" localSheetId="2">#REF!</definedName>
     <definedName name="THUE_GTGT">#REF!</definedName>
     <definedName name="TK">[10]CDPS!$C$10:$C$150</definedName>
     <definedName name="TKCO_NK">[18]NHATKY!$F$7:$F$125</definedName>
     <definedName name="TKdu">[7]Sqt02!#REF!</definedName>
     <definedName name="TKNO_NK">[18]NHATKY!$E$7:$E$125</definedName>
     <definedName name="Toàn">[7]Sqt02!#REF!</definedName>
+    <definedName name="TrTkDv" localSheetId="2">#REF!</definedName>
     <definedName name="TrTkDv">#REF!</definedName>
     <definedName name="TSUAT_BAN">[9]BANRA!$L$9:$L$25</definedName>
     <definedName name="ttt">[9]CTGS!$Q$6:$Q$598</definedName>
     <definedName name="Txt_Hdon">[12]!Txt_Hdon</definedName>
     <definedName name="Txt_tieu_de_thke">[8]!Txt_tieu_de_thke</definedName>
     <definedName name="Txt_Tieude_thke">[5]!Txt_Tieude_thke</definedName>
+    <definedName name="Tygia" localSheetId="2">#REF!</definedName>
     <definedName name="Tygia">#REF!</definedName>
     <definedName name="Xoa_dg_cuoi">[5]!Xoa_dg_cuoi</definedName>
     <definedName name="Xoa_dg_cuoi_chtu_ghi_so">[14]!Xoa_dg_cuoi_chtu_ghi_so</definedName>
     <definedName name="Xoa_dong_cuoi">[13]!Xoa_dong_cuoi</definedName>
     <definedName name="Xoa_mau_thke">[5]!Xoa_mau_thke</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="71">
   <si>
     <t>CÔNG TY TNHH HẢI SẢN AN LẠC</t>
   </si>
@@ -334,6 +378,103 @@
   <si>
     <t>Cá bò NL</t>
   </si>
+  <si>
+    <t>BẢNG KÊ THU MUA HÀNG HÓA, DỊCH VỤ 
+MUA VÀO KHÔNG CÓ HÓA ĐƠN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mẫu số: 01/TNDN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Ban hành kèm theo Thông tư
+số 130/2008/TT-BTC ngày 26/12/2008 của Bộ tài chính)</t>
+    </r>
+  </si>
+  <si>
+    <t>Tên doanh nghiệp:Công Ty TNHH Hải Sản An lạc</t>
+  </si>
+  <si>
+    <t>Mã số thuế: 1100878093</t>
+  </si>
+  <si>
+    <t>Địa chỉ: Lô A14 đường 4A, KCN Hải Sơn, Đức Hòa, Long An</t>
+  </si>
+  <si>
+    <t>Địa chỉ nơi tổ chức thu mua:…………………………………………………………………………………</t>
+  </si>
+  <si>
+    <t>Người phụ trách thu mua:……………………………………………………………………………………</t>
+  </si>
+  <si>
+    <t>Ngày tháng 
+năm mua hàng</t>
+  </si>
+  <si>
+    <t>Hàng hóa mua vào</t>
+  </si>
+  <si>
+    <t>Tên người bán</t>
+  </si>
+  <si>
+    <t>Số CMND</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Tổng giá
+ thanh toán</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Nhân</t>
+  </si>
+  <si>
+    <t>Tổng giá trị hàng mua vào:</t>
+  </si>
+  <si>
+    <t>Người lập bảng kê</t>
+  </si>
+  <si>
+    <t>Giám đốc doanh nghiệp</t>
+  </si>
+  <si>
+    <t>(Ký, ghi rõ họ tên)</t>
+  </si>
+  <si>
+    <t>(Ký tên, đóng dấu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghi chú: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Căn cứ vào số liệu thực các mặt hàng trên mà đơn vị mua của người bán không có hóa đơn, lập bảng kê theo thứ tự thời gian mua hàng, doanh nghiệp ghi đầy đủ các chỉ tiêu trên bảng kê, tổng hợp bảng kê hàng tháng. Hàng hóa mua vào lập theo bảng kê này</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Đối với doanh nghiệp có tổ chức các trạm nơi thu mua ở nhiều nơi thì từng trạm thu mua phải lập từng bảng kê riêng. Doanh nghiệp lập bảng kê tổng hợp chung của các trạm.</t>
+  </si>
+  <si>
+    <t>(Ngày 10 tháng 03 năm 2016)</t>
+  </si>
+  <si>
+    <t>Ngày 10 tháng  03 năm   2016</t>
+  </si>
 </sst>
 </file>
 
@@ -352,7 +493,7 @@
     <numFmt numFmtId="172" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;\-#,##0.00"/>
     <numFmt numFmtId="173" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <name val="VNI-Times"/>
@@ -504,6 +645,57 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -519,7 +711,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -703,6 +895,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -748,7 +1000,7 @@
     <xf numFmtId="173" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -898,30 +1150,7 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -994,8 +1223,175 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -1028,7 +1424,16 @@
     <cellStyle name="통화_1202" xfId="26"/>
     <cellStyle name="표준_(정보부문)월별인원계획" xfId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -11186,6 +11591,1488 @@
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Vine"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="5">
+          <cell r="A5">
+            <v>0</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>cá chai ghép</v>
+          </cell>
+          <cell r="D5">
+            <v>6.5</v>
+          </cell>
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>0</v>
+          </cell>
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>Ghẹ</v>
+          </cell>
+          <cell r="D6">
+            <v>8</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>0</v>
+          </cell>
+          <cell r="B7">
+            <v>0</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>0</v>
+          </cell>
+          <cell r="B8">
+            <v>0</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>0</v>
+          </cell>
+          <cell r="B9">
+            <v>0</v>
+          </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Người bán</v>
+          </cell>
+          <cell r="B10">
+            <v>0</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>Tỉnh</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Tên mặt hàng</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Họ tên</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>CMND</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>Địa chỉ</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Võ Văn Thắng</v>
+          </cell>
+          <cell r="B12">
+            <v>320044169</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>Bến Tre</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Nguyễn Thị Hồng Hoa</v>
+          </cell>
+          <cell r="B13">
+            <v>320744085</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>Bến Tre</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Nguyễn Thành Phong</v>
+          </cell>
+          <cell r="B14">
+            <v>320775664</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Nguyễn Văn Tha</v>
+          </cell>
+          <cell r="B15">
+            <v>320807672</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>Bến Tre</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Lý Thị Thảo</v>
+          </cell>
+          <cell r="B16">
+            <v>320881573</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Nguyễn Thị Tuyết Đang</v>
+          </cell>
+          <cell r="B17">
+            <v>320883374</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Nguyễn Văn Phong</v>
+          </cell>
+          <cell r="B18">
+            <v>320892558</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>Bến Tre</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Trương Thị Nhớ</v>
+          </cell>
+          <cell r="B19">
+            <v>320892578</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Nguyễn Thanh Hoàng</v>
+          </cell>
+          <cell r="B20">
+            <v>321413712</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Lê Thành Lê</v>
+          </cell>
+          <cell r="B21">
+            <v>320593933</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Giồng Trôm - Bến Tre</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Đỗ Ngọc Trương</v>
+          </cell>
+          <cell r="B22">
+            <v>320876542</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>Giồng Trôm - Bến Tre</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Đặng Thanh Phong</v>
+          </cell>
+          <cell r="B23">
+            <v>320876558</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>Giồng Trôm - Bến Tre</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Nguyễn Văn Hiền</v>
+          </cell>
+          <cell r="B24">
+            <v>320878054</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>Giồng Trôm - Bến Tre</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>Bến Tre</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Nguyễn Thanh Hải</v>
+          </cell>
+          <cell r="B25">
+            <v>321179471</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>Giồng Trôm - Bến Tre</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Phạm Tuấn Anh</v>
+          </cell>
+          <cell r="B26">
+            <v>321478047</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>Thạnh Phú - Bến Tre</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Huỳnh Ngọc Thu</v>
+          </cell>
+          <cell r="B27">
+            <v>320522056</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Trần Thị Nê</v>
+          </cell>
+          <cell r="B28">
+            <v>320747922</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>Giồng Trôm - Bến Tre</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Lê Thị Diễm</v>
+          </cell>
+          <cell r="B29">
+            <v>320878272</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Giồng Trôm - Bến Tre</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Trương Thị Mỉm</v>
+          </cell>
+          <cell r="B30">
+            <v>320897817</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Mỏ Cày - Bến Tre</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Nguyễn Thị Loan</v>
+          </cell>
+          <cell r="B31">
+            <v>321009246</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Mỏ Cày - Bến Tre</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Lê Thị Diệu</v>
+          </cell>
+          <cell r="B32">
+            <v>250746332</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Đức Linh - Bình Thuận</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>Bình Thuận</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>Cá cơm</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Lê Thị Thiện Em</v>
+          </cell>
+          <cell r="B33">
+            <v>260682094</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Đức Linh - Bình Thuận</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>Bình Thuận</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>Cá cơm</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Trần Văn An</v>
+          </cell>
+          <cell r="B34">
+            <v>260690910</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Hàm Tân - Bình Thuận</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>Bình Thuận</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>Cá cơm</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Nguyễn Thị Hội</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>020714486</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Long Hương - Bình Thuận</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>Bình Thuận</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>Cá cơm</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Nguyễn Thanh Bình</v>
+          </cell>
+          <cell r="B36">
+            <v>260178873</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Phan Thiết - Bình Thuận</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>Bình Thuận</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>Cá cơm</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Nguyễn Văn Hạnh</v>
+          </cell>
+          <cell r="B37">
+            <v>260850613</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Phan Thiết - Bình Thuận</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>Bình Thuận</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>Cá cơm</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Trần Thị Thu Hiếu</v>
+          </cell>
+          <cell r="B38">
+            <v>280853616</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Phan Thiết - Bình Thuận</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>Bình Thuận</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>Cá cơm</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Nguyễn Văn Nhân</v>
+          </cell>
+          <cell r="B39">
+            <v>261005222</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Thanh Hải - Bình Thuận</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>Bình Thuận</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>Cá cơm</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Nguyễn Thị Kiều Oanh</v>
+          </cell>
+          <cell r="B40">
+            <v>381156240</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Cà Mau</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>Cà Mau</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>Cá mai</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Nguyễn Thị Hồng Tơ</v>
+          </cell>
+          <cell r="B41">
+            <v>381222859</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Cái Đước - Cà Mau</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>Cà Mau</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>Cá mai</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Phạm Thị Ngọc</v>
+          </cell>
+          <cell r="B42">
+            <v>220557300</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Nha Trang - Khánh Hoà</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>Khánh Hoà</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>Cá mai</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Võ Thị Huyền</v>
+          </cell>
+          <cell r="B43">
+            <v>370615318</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Gò Quao - Kiên Giang</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>Cá mai, cá đổng, mực</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Nguyễn Thị Bé Hai</v>
+          </cell>
+          <cell r="B44">
+            <v>370825748</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Gò Quao - Kiên Giang</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>Cá mai, cá đổng, mực</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Lâm Thị Loan</v>
+          </cell>
+          <cell r="B45">
+            <v>370698949</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Hòn Đất, Kiên Giang</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>KG 90428TS, KG90139TS, KG91737TS</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Vũ Thị Lan</v>
+          </cell>
+          <cell r="B46">
+            <v>370803567</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>Kiên lương - Kiên Giang</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>Cá mai, cá đổng, mực</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Trương Quốc Tuấn</v>
+          </cell>
+          <cell r="B47">
+            <v>370004125</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>Cá mai, cá đổng, mực</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Nguyễn Văn Hải</v>
+          </cell>
+          <cell r="B48">
+            <v>370033286</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Huỳnh Thị Kiều</v>
+          </cell>
+          <cell r="B49">
+            <v>370047763</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>Nguyễn Thị Kim Vân</v>
+          </cell>
+          <cell r="B50">
+            <v>370054438</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>Phan Quốc Việt</v>
+          </cell>
+          <cell r="B51">
+            <v>370209938</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>Phạm Thị Bảy</v>
+          </cell>
+          <cell r="B52">
+            <v>370324838</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>Cá mai, cá đổng, mực</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Tiêu Vĩnh Phát</v>
+          </cell>
+          <cell r="B53">
+            <v>370511387</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E53" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>Phan Quốc Vũ</v>
+          </cell>
+          <cell r="B54">
+            <v>370782417</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E54" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Vương Hải Thạnh</v>
+          </cell>
+          <cell r="B55">
+            <v>370948627</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E55" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>Trần Huỳnh Em</v>
+          </cell>
+          <cell r="B56">
+            <v>371008704</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E56" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>Lê Hoàng Long</v>
+          </cell>
+          <cell r="B57">
+            <v>371139593</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E57" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>Trần Ngọc Quyên</v>
+          </cell>
+          <cell r="B58">
+            <v>371166950</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E58" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>Trần Thị Tuyết</v>
+          </cell>
+          <cell r="B59">
+            <v>370261883</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>Vĩnh Thuận - Kiên Giang</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E59" t="str">
+            <v>Cá mai, cá đổng, mực</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>Lê Thị Kim Thanh</v>
+          </cell>
+          <cell r="B60">
+            <v>311514350</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>Châu Thành - Tiền Giang</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E60" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>Lê Thị Kim Liên</v>
+          </cell>
+          <cell r="B61">
+            <v>311704830</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Châu Thành - Tiền Giang</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E61" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>Nguyễn Thị Mộng Tuyền</v>
+          </cell>
+          <cell r="B62">
+            <v>311318331</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Gò Công Đông - Tiền Giang</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E62" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>Đỗ Thị Hoàng Mai</v>
+          </cell>
+          <cell r="B63">
+            <v>310882191</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>Gò Công Tây - Tiền Giang</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E63" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>Phạm Thị Chính</v>
+          </cell>
+          <cell r="B64">
+            <v>310882158</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v xml:space="preserve">Gò Công Tây - Tiền Giang </v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E64" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>Trần Thị Lang</v>
+          </cell>
+          <cell r="B65">
+            <v>310033074</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>Mỹ Tho - Tiền Giang</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E65" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>Lê Văn Thành</v>
+          </cell>
+          <cell r="B66">
+            <v>310526150</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Mỹ Tho - Tiền Giang</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E66" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>Nguyễn Văn Lắm</v>
+          </cell>
+          <cell r="B67">
+            <v>310703274</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>Mỹ Tho - Tiền Giang</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E67" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>Phạm Thị Ngọc</v>
+          </cell>
+          <cell r="B68">
+            <v>273042454</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>Bà Rịa Vũng Tàu</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E68" t="str">
+            <v>Br 7799TS</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>Võ Thị Bảy</v>
+          </cell>
+          <cell r="B69">
+            <v>270106056</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E69" t="str">
+            <v>Br 4147TS</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>Võ Văn Bá</v>
+          </cell>
+          <cell r="B70">
+            <v>270176684</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E70" t="str">
+            <v>Br 5400TS</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>Nguyễn Thanh Vân</v>
+          </cell>
+          <cell r="B71">
+            <v>270176960</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E71" t="str">
+            <v>Br 4437TS, Br 4516TS</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>Trương Văn Mình</v>
+          </cell>
+          <cell r="B72">
+            <v>273017840</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>Long Điền - Vũng Tàu</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E72" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>Nguyễn Ngọc Anh</v>
+          </cell>
+          <cell r="B73">
+            <v>273017843</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>Long Điền - Vũng Tàu</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E73" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>Ngô Văn Vàng</v>
+          </cell>
+          <cell r="B74">
+            <v>190253143</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E74" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>Nguyễn Hành</v>
+          </cell>
+          <cell r="B75">
+            <v>190524479</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E75" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>Lương Âm</v>
+          </cell>
+          <cell r="B76">
+            <v>211161439</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D76" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E76" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>Nguyễn Văn Tư</v>
+          </cell>
+          <cell r="B77">
+            <v>260456563</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D77" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E77" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>Nguyễn Văn Đức</v>
+          </cell>
+          <cell r="B78">
+            <v>261183075</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D78" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E78" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>Hồ Thị Mỹ</v>
+          </cell>
+          <cell r="B79">
+            <v>270986506</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D79" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E79" t="str">
+            <v>Cá bò</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>Nguyễn Thanh Vinh</v>
+          </cell>
+          <cell r="B80">
+            <v>271181056</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D80" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E80" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>Đỗ Văn Tâm</v>
+          </cell>
+          <cell r="B81">
+            <v>271642418</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D81" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E81" t="str">
+            <v>Cá bò</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>Nguyễn Đức Tiến</v>
+          </cell>
+          <cell r="B82">
+            <v>273249576</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E82" t="str">
+            <v>Cá bò</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>Trương Văn Minh</v>
+          </cell>
+          <cell r="B83">
+            <v>273017840</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>Tân Phước - Long Điền</v>
+          </cell>
+          <cell r="D83" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E83" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>Quang Minh</v>
+          </cell>
+          <cell r="B84">
+            <v>370902819</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D84" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E84" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>Nguyễn Thị Thơm</v>
+          </cell>
+          <cell r="B85">
+            <v>320892578</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>Chợ Lách - Bến tre</v>
+          </cell>
+          <cell r="D85" t="str">
+            <v>Bến Tre</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>Nguyễn Thị Tuyết</v>
+          </cell>
+          <cell r="B86">
+            <v>310703480</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>Cai Lậy - Tiền Giang</v>
+          </cell>
+          <cell r="D86" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E86">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>Lương Âm</v>
+          </cell>
+          <cell r="B87">
+            <v>211161439</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D87" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E87" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>Nguyễn Minh Trí</v>
+          </cell>
+          <cell r="B88">
+            <v>381156256</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>Ngọc Hiển - Cà Mau</v>
+          </cell>
+          <cell r="D88" t="str">
+            <v>Cà Mau</v>
+          </cell>
+          <cell r="E88">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>Nguyễn Văn Lâm</v>
+          </cell>
+          <cell r="B89">
+            <v>320892452</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>Bình Đại - Bến Tre</v>
+          </cell>
+          <cell r="D89" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E89">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>Trần Thị Mộng Điềm</v>
+          </cell>
+          <cell r="B90">
+            <v>271645628</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D90" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E90" t="str">
+            <v>Cá bò</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>Đỗ Tư</v>
+          </cell>
+          <cell r="B91">
+            <v>270065116</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D91" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E91" t="str">
+            <v>Cá bò</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="O.Cheon 01"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14859,11 +16746,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
@@ -14891,19 +16778,19 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="1:12" ht="8.25" customHeight="1">
       <c r="A4" s="9"/>
@@ -14919,39 +16806,39 @@
       <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="21" customHeight="1">
-      <c r="A6" s="59"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="16" t="s">
         <v>13</v>
       </c>
@@ -14961,12 +16848,12 @@
       <c r="E6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="49"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:12" s="25" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="19">
@@ -15478,14 +17365,14 @@
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="29">
         <f>SUM(G7:G20)</f>
         <v>87413</v>
@@ -15506,27 +17393,27 @@
       <c r="C23" s="42"/>
       <c r="F23" s="43"/>
       <c r="G23" s="44"/>
-      <c r="H23" s="53" t="s">
+      <c r="H23" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="6"/>
       <c r="F24" s="39"/>
       <c r="G24" s="37"/>
-      <c r="H24" s="53" t="s">
+      <c r="H24" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
     </row>
     <row r="25" spans="1:11">
       <c r="G25" s="37"/>
@@ -15535,46 +17422,54 @@
       <c r="G26" s="46"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="55"/>
+      <c r="C30" s="48"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
     </row>
     <row r="33" spans="2:3" s="6" customFormat="1">
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
     </row>
     <row r="34" spans="2:3" s="6" customFormat="1">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
     </row>
     <row r="35" spans="2:3" s="6" customFormat="1">
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
     </row>
     <row r="36" spans="2:3" s="6" customFormat="1">
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
     </row>
     <row r="37" spans="2:3" s="6" customFormat="1">
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
     </row>
     <row r="38" spans="2:3" s="6" customFormat="1">
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:L19"/>
   <mergeCells count="24">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:K3"/>
@@ -15591,17 +17486,9 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:D6 E6">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15615,7 +17502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -16456,11 +18343,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
@@ -16488,19 +18375,19 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9"/>
@@ -16516,39 +18403,39 @@
       <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A6" s="59"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="16" t="s">
         <v>13</v>
       </c>
@@ -16558,12 +18445,12 @@
       <c r="E6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="49"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:12" s="25" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="19">
@@ -16584,7 +18471,7 @@
         <f>VLOOKUP(C7,[25]Times!$B$5:$C$70,2,0)</f>
         <v>260456563</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="23">
@@ -16622,7 +18509,7 @@
         <f>VLOOKUP(C8,[25]Times!$B$5:$C$70,2,0)</f>
         <v>261183075</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="23">
@@ -16660,7 +18547,7 @@
         <f>VLOOKUP(C9,[25]Times!$B$5:$C$70,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="27">
@@ -16699,7 +18586,7 @@
         <f>VLOOKUP(C10,[25]Times!$B$5:$C$70,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="23">
@@ -16737,7 +18624,7 @@
         <f>VLOOKUP(C11,[25]Times!$B$5:$C$70,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="23">
@@ -16775,7 +18662,7 @@
         <f>VLOOKUP(C12,[25]Times!$B$5:$C$70,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="23">
@@ -16813,7 +18700,7 @@
         <f>VLOOKUP(C13,[25]Times!$B$5:$C$70,2,0)</f>
         <v>270986506</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="23">
@@ -16851,7 +18738,7 @@
         <f>VLOOKUP(C14,[25]Times!$B$5:$C$70,2,0)</f>
         <v>271181056</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="23">
@@ -16889,7 +18776,7 @@
         <f>VLOOKUP(C15,[25]Times!$B$5:$C$70,2,0)</f>
         <v>271642418</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="27">
@@ -16927,7 +18814,7 @@
         <f>VLOOKUP(C16,[25]Times!$B$5:$C$70,2,0)</f>
         <v>273249576</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G16" s="23">
@@ -16965,7 +18852,7 @@
         <f>VLOOKUP(C17,[25]Times!$B$5:$C$70,2,0)</f>
         <v>260456563</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="23">
@@ -17003,7 +18890,7 @@
         <f>VLOOKUP(C18,[25]Times!$B$5:$C$70,2,0)</f>
         <v>261183075</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G18" s="23">
@@ -17041,7 +18928,7 @@
         <f>VLOOKUP(C19,[25]Times!$B$5:$C$70,2,0)</f>
         <v>273249576</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="23">
@@ -17079,7 +18966,7 @@
         <f>VLOOKUP(C20,[25]Times!$B$5:$C$70,2,0)</f>
         <v>260456563</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="23">
@@ -17117,7 +19004,7 @@
         <f>VLOOKUP(C21,[25]Times!$B$5:$C$70,2,0)</f>
         <v>261183075</v>
       </c>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G21" s="23">
@@ -17155,10 +19042,10 @@
         <f>VLOOKUP(C22,[25]Times!$B$5:$C$70,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="74">
+      <c r="G22" s="47">
         <v>6670</v>
       </c>
       <c r="H22" s="22">
@@ -17193,7 +19080,7 @@
         <f>VLOOKUP(C23,[25]Times!$B$5:$C$70,2,0)</f>
         <v>260456563</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G23" s="23">
@@ -17231,7 +19118,7 @@
         <f>VLOOKUP(C24,[25]Times!$B$5:$C$70,2,0)</f>
         <v>261183075</v>
       </c>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G24" s="23">
@@ -17269,10 +19156,10 @@
         <f>VLOOKUP(C25,[25]Times!$B$5:$C$70,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="74">
+      <c r="G25" s="47">
         <f>137500-SUM(G7:G24)</f>
         <v>6647</v>
       </c>
@@ -17303,14 +19190,14 @@
       <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="29">
         <f>SUM(G7:G26)</f>
         <v>137500</v>
@@ -17331,27 +19218,27 @@
       <c r="C29" s="42"/>
       <c r="F29" s="43"/>
       <c r="G29" s="44"/>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="54"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="6"/>
       <c r="F30" s="39"/>
       <c r="G30" s="37"/>
-      <c r="H30" s="53" t="s">
+      <c r="H30" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
     </row>
     <row r="31" spans="1:11">
       <c r="G31" s="37"/>
@@ -17360,22 +19247,22 @@
       <c r="G32" s="46"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="55"/>
+      <c r="C36" s="48"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="G39" s="6"/>
@@ -17385,8 +19272,8 @@
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="G40" s="6"/>
@@ -17396,8 +19283,8 @@
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="G41" s="6"/>
@@ -17407,8 +19294,8 @@
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="G42" s="6"/>
@@ -17418,8 +19305,8 @@
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="G43" s="6"/>
@@ -17429,8 +19316,8 @@
       <c r="K43" s="6"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="G44" s="6"/>
@@ -17441,19 +19328,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="H30:K30"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:K3"/>
@@ -17465,13 +19339,3128 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:D6 E6">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.3" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CE45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11" style="87" customWidth="1"/>
+    <col min="2" max="2" width="21" style="79" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="79" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="79" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="89" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="89" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="79" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="79" customWidth="1"/>
+    <col min="10" max="10" width="9" style="79"/>
+    <col min="11" max="83" width="9" style="80"/>
+    <col min="84" max="256" width="9" style="79"/>
+    <col min="257" max="257" width="11" style="79" customWidth="1"/>
+    <col min="258" max="258" width="21" style="79" customWidth="1"/>
+    <col min="259" max="259" width="21.625" style="79" customWidth="1"/>
+    <col min="260" max="260" width="12.125" style="79" customWidth="1"/>
+    <col min="261" max="261" width="13.375" style="79" customWidth="1"/>
+    <col min="262" max="262" width="9.125" style="79" customWidth="1"/>
+    <col min="263" max="263" width="9.25" style="79" customWidth="1"/>
+    <col min="264" max="264" width="11.25" style="79" customWidth="1"/>
+    <col min="265" max="265" width="9.5" style="79" customWidth="1"/>
+    <col min="266" max="512" width="9" style="79"/>
+    <col min="513" max="513" width="11" style="79" customWidth="1"/>
+    <col min="514" max="514" width="21" style="79" customWidth="1"/>
+    <col min="515" max="515" width="21.625" style="79" customWidth="1"/>
+    <col min="516" max="516" width="12.125" style="79" customWidth="1"/>
+    <col min="517" max="517" width="13.375" style="79" customWidth="1"/>
+    <col min="518" max="518" width="9.125" style="79" customWidth="1"/>
+    <col min="519" max="519" width="9.25" style="79" customWidth="1"/>
+    <col min="520" max="520" width="11.25" style="79" customWidth="1"/>
+    <col min="521" max="521" width="9.5" style="79" customWidth="1"/>
+    <col min="522" max="768" width="9" style="79"/>
+    <col min="769" max="769" width="11" style="79" customWidth="1"/>
+    <col min="770" max="770" width="21" style="79" customWidth="1"/>
+    <col min="771" max="771" width="21.625" style="79" customWidth="1"/>
+    <col min="772" max="772" width="12.125" style="79" customWidth="1"/>
+    <col min="773" max="773" width="13.375" style="79" customWidth="1"/>
+    <col min="774" max="774" width="9.125" style="79" customWidth="1"/>
+    <col min="775" max="775" width="9.25" style="79" customWidth="1"/>
+    <col min="776" max="776" width="11.25" style="79" customWidth="1"/>
+    <col min="777" max="777" width="9.5" style="79" customWidth="1"/>
+    <col min="778" max="1024" width="9" style="79"/>
+    <col min="1025" max="1025" width="11" style="79" customWidth="1"/>
+    <col min="1026" max="1026" width="21" style="79" customWidth="1"/>
+    <col min="1027" max="1027" width="21.625" style="79" customWidth="1"/>
+    <col min="1028" max="1028" width="12.125" style="79" customWidth="1"/>
+    <col min="1029" max="1029" width="13.375" style="79" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" style="79" customWidth="1"/>
+    <col min="1031" max="1031" width="9.25" style="79" customWidth="1"/>
+    <col min="1032" max="1032" width="11.25" style="79" customWidth="1"/>
+    <col min="1033" max="1033" width="9.5" style="79" customWidth="1"/>
+    <col min="1034" max="1280" width="9" style="79"/>
+    <col min="1281" max="1281" width="11" style="79" customWidth="1"/>
+    <col min="1282" max="1282" width="21" style="79" customWidth="1"/>
+    <col min="1283" max="1283" width="21.625" style="79" customWidth="1"/>
+    <col min="1284" max="1284" width="12.125" style="79" customWidth="1"/>
+    <col min="1285" max="1285" width="13.375" style="79" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" style="79" customWidth="1"/>
+    <col min="1287" max="1287" width="9.25" style="79" customWidth="1"/>
+    <col min="1288" max="1288" width="11.25" style="79" customWidth="1"/>
+    <col min="1289" max="1289" width="9.5" style="79" customWidth="1"/>
+    <col min="1290" max="1536" width="9" style="79"/>
+    <col min="1537" max="1537" width="11" style="79" customWidth="1"/>
+    <col min="1538" max="1538" width="21" style="79" customWidth="1"/>
+    <col min="1539" max="1539" width="21.625" style="79" customWidth="1"/>
+    <col min="1540" max="1540" width="12.125" style="79" customWidth="1"/>
+    <col min="1541" max="1541" width="13.375" style="79" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" style="79" customWidth="1"/>
+    <col min="1543" max="1543" width="9.25" style="79" customWidth="1"/>
+    <col min="1544" max="1544" width="11.25" style="79" customWidth="1"/>
+    <col min="1545" max="1545" width="9.5" style="79" customWidth="1"/>
+    <col min="1546" max="1792" width="9" style="79"/>
+    <col min="1793" max="1793" width="11" style="79" customWidth="1"/>
+    <col min="1794" max="1794" width="21" style="79" customWidth="1"/>
+    <col min="1795" max="1795" width="21.625" style="79" customWidth="1"/>
+    <col min="1796" max="1796" width="12.125" style="79" customWidth="1"/>
+    <col min="1797" max="1797" width="13.375" style="79" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" style="79" customWidth="1"/>
+    <col min="1799" max="1799" width="9.25" style="79" customWidth="1"/>
+    <col min="1800" max="1800" width="11.25" style="79" customWidth="1"/>
+    <col min="1801" max="1801" width="9.5" style="79" customWidth="1"/>
+    <col min="1802" max="2048" width="9" style="79"/>
+    <col min="2049" max="2049" width="11" style="79" customWidth="1"/>
+    <col min="2050" max="2050" width="21" style="79" customWidth="1"/>
+    <col min="2051" max="2051" width="21.625" style="79" customWidth="1"/>
+    <col min="2052" max="2052" width="12.125" style="79" customWidth="1"/>
+    <col min="2053" max="2053" width="13.375" style="79" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" style="79" customWidth="1"/>
+    <col min="2055" max="2055" width="9.25" style="79" customWidth="1"/>
+    <col min="2056" max="2056" width="11.25" style="79" customWidth="1"/>
+    <col min="2057" max="2057" width="9.5" style="79" customWidth="1"/>
+    <col min="2058" max="2304" width="9" style="79"/>
+    <col min="2305" max="2305" width="11" style="79" customWidth="1"/>
+    <col min="2306" max="2306" width="21" style="79" customWidth="1"/>
+    <col min="2307" max="2307" width="21.625" style="79" customWidth="1"/>
+    <col min="2308" max="2308" width="12.125" style="79" customWidth="1"/>
+    <col min="2309" max="2309" width="13.375" style="79" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" style="79" customWidth="1"/>
+    <col min="2311" max="2311" width="9.25" style="79" customWidth="1"/>
+    <col min="2312" max="2312" width="11.25" style="79" customWidth="1"/>
+    <col min="2313" max="2313" width="9.5" style="79" customWidth="1"/>
+    <col min="2314" max="2560" width="9" style="79"/>
+    <col min="2561" max="2561" width="11" style="79" customWidth="1"/>
+    <col min="2562" max="2562" width="21" style="79" customWidth="1"/>
+    <col min="2563" max="2563" width="21.625" style="79" customWidth="1"/>
+    <col min="2564" max="2564" width="12.125" style="79" customWidth="1"/>
+    <col min="2565" max="2565" width="13.375" style="79" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" style="79" customWidth="1"/>
+    <col min="2567" max="2567" width="9.25" style="79" customWidth="1"/>
+    <col min="2568" max="2568" width="11.25" style="79" customWidth="1"/>
+    <col min="2569" max="2569" width="9.5" style="79" customWidth="1"/>
+    <col min="2570" max="2816" width="9" style="79"/>
+    <col min="2817" max="2817" width="11" style="79" customWidth="1"/>
+    <col min="2818" max="2818" width="21" style="79" customWidth="1"/>
+    <col min="2819" max="2819" width="21.625" style="79" customWidth="1"/>
+    <col min="2820" max="2820" width="12.125" style="79" customWidth="1"/>
+    <col min="2821" max="2821" width="13.375" style="79" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" style="79" customWidth="1"/>
+    <col min="2823" max="2823" width="9.25" style="79" customWidth="1"/>
+    <col min="2824" max="2824" width="11.25" style="79" customWidth="1"/>
+    <col min="2825" max="2825" width="9.5" style="79" customWidth="1"/>
+    <col min="2826" max="3072" width="9" style="79"/>
+    <col min="3073" max="3073" width="11" style="79" customWidth="1"/>
+    <col min="3074" max="3074" width="21" style="79" customWidth="1"/>
+    <col min="3075" max="3075" width="21.625" style="79" customWidth="1"/>
+    <col min="3076" max="3076" width="12.125" style="79" customWidth="1"/>
+    <col min="3077" max="3077" width="13.375" style="79" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" style="79" customWidth="1"/>
+    <col min="3079" max="3079" width="9.25" style="79" customWidth="1"/>
+    <col min="3080" max="3080" width="11.25" style="79" customWidth="1"/>
+    <col min="3081" max="3081" width="9.5" style="79" customWidth="1"/>
+    <col min="3082" max="3328" width="9" style="79"/>
+    <col min="3329" max="3329" width="11" style="79" customWidth="1"/>
+    <col min="3330" max="3330" width="21" style="79" customWidth="1"/>
+    <col min="3331" max="3331" width="21.625" style="79" customWidth="1"/>
+    <col min="3332" max="3332" width="12.125" style="79" customWidth="1"/>
+    <col min="3333" max="3333" width="13.375" style="79" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" style="79" customWidth="1"/>
+    <col min="3335" max="3335" width="9.25" style="79" customWidth="1"/>
+    <col min="3336" max="3336" width="11.25" style="79" customWidth="1"/>
+    <col min="3337" max="3337" width="9.5" style="79" customWidth="1"/>
+    <col min="3338" max="3584" width="9" style="79"/>
+    <col min="3585" max="3585" width="11" style="79" customWidth="1"/>
+    <col min="3586" max="3586" width="21" style="79" customWidth="1"/>
+    <col min="3587" max="3587" width="21.625" style="79" customWidth="1"/>
+    <col min="3588" max="3588" width="12.125" style="79" customWidth="1"/>
+    <col min="3589" max="3589" width="13.375" style="79" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" style="79" customWidth="1"/>
+    <col min="3591" max="3591" width="9.25" style="79" customWidth="1"/>
+    <col min="3592" max="3592" width="11.25" style="79" customWidth="1"/>
+    <col min="3593" max="3593" width="9.5" style="79" customWidth="1"/>
+    <col min="3594" max="3840" width="9" style="79"/>
+    <col min="3841" max="3841" width="11" style="79" customWidth="1"/>
+    <col min="3842" max="3842" width="21" style="79" customWidth="1"/>
+    <col min="3843" max="3843" width="21.625" style="79" customWidth="1"/>
+    <col min="3844" max="3844" width="12.125" style="79" customWidth="1"/>
+    <col min="3845" max="3845" width="13.375" style="79" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" style="79" customWidth="1"/>
+    <col min="3847" max="3847" width="9.25" style="79" customWidth="1"/>
+    <col min="3848" max="3848" width="11.25" style="79" customWidth="1"/>
+    <col min="3849" max="3849" width="9.5" style="79" customWidth="1"/>
+    <col min="3850" max="4096" width="9" style="79"/>
+    <col min="4097" max="4097" width="11" style="79" customWidth="1"/>
+    <col min="4098" max="4098" width="21" style="79" customWidth="1"/>
+    <col min="4099" max="4099" width="21.625" style="79" customWidth="1"/>
+    <col min="4100" max="4100" width="12.125" style="79" customWidth="1"/>
+    <col min="4101" max="4101" width="13.375" style="79" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" style="79" customWidth="1"/>
+    <col min="4103" max="4103" width="9.25" style="79" customWidth="1"/>
+    <col min="4104" max="4104" width="11.25" style="79" customWidth="1"/>
+    <col min="4105" max="4105" width="9.5" style="79" customWidth="1"/>
+    <col min="4106" max="4352" width="9" style="79"/>
+    <col min="4353" max="4353" width="11" style="79" customWidth="1"/>
+    <col min="4354" max="4354" width="21" style="79" customWidth="1"/>
+    <col min="4355" max="4355" width="21.625" style="79" customWidth="1"/>
+    <col min="4356" max="4356" width="12.125" style="79" customWidth="1"/>
+    <col min="4357" max="4357" width="13.375" style="79" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" style="79" customWidth="1"/>
+    <col min="4359" max="4359" width="9.25" style="79" customWidth="1"/>
+    <col min="4360" max="4360" width="11.25" style="79" customWidth="1"/>
+    <col min="4361" max="4361" width="9.5" style="79" customWidth="1"/>
+    <col min="4362" max="4608" width="9" style="79"/>
+    <col min="4609" max="4609" width="11" style="79" customWidth="1"/>
+    <col min="4610" max="4610" width="21" style="79" customWidth="1"/>
+    <col min="4611" max="4611" width="21.625" style="79" customWidth="1"/>
+    <col min="4612" max="4612" width="12.125" style="79" customWidth="1"/>
+    <col min="4613" max="4613" width="13.375" style="79" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" style="79" customWidth="1"/>
+    <col min="4615" max="4615" width="9.25" style="79" customWidth="1"/>
+    <col min="4616" max="4616" width="11.25" style="79" customWidth="1"/>
+    <col min="4617" max="4617" width="9.5" style="79" customWidth="1"/>
+    <col min="4618" max="4864" width="9" style="79"/>
+    <col min="4865" max="4865" width="11" style="79" customWidth="1"/>
+    <col min="4866" max="4866" width="21" style="79" customWidth="1"/>
+    <col min="4867" max="4867" width="21.625" style="79" customWidth="1"/>
+    <col min="4868" max="4868" width="12.125" style="79" customWidth="1"/>
+    <col min="4869" max="4869" width="13.375" style="79" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" style="79" customWidth="1"/>
+    <col min="4871" max="4871" width="9.25" style="79" customWidth="1"/>
+    <col min="4872" max="4872" width="11.25" style="79" customWidth="1"/>
+    <col min="4873" max="4873" width="9.5" style="79" customWidth="1"/>
+    <col min="4874" max="5120" width="9" style="79"/>
+    <col min="5121" max="5121" width="11" style="79" customWidth="1"/>
+    <col min="5122" max="5122" width="21" style="79" customWidth="1"/>
+    <col min="5123" max="5123" width="21.625" style="79" customWidth="1"/>
+    <col min="5124" max="5124" width="12.125" style="79" customWidth="1"/>
+    <col min="5125" max="5125" width="13.375" style="79" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" style="79" customWidth="1"/>
+    <col min="5127" max="5127" width="9.25" style="79" customWidth="1"/>
+    <col min="5128" max="5128" width="11.25" style="79" customWidth="1"/>
+    <col min="5129" max="5129" width="9.5" style="79" customWidth="1"/>
+    <col min="5130" max="5376" width="9" style="79"/>
+    <col min="5377" max="5377" width="11" style="79" customWidth="1"/>
+    <col min="5378" max="5378" width="21" style="79" customWidth="1"/>
+    <col min="5379" max="5379" width="21.625" style="79" customWidth="1"/>
+    <col min="5380" max="5380" width="12.125" style="79" customWidth="1"/>
+    <col min="5381" max="5381" width="13.375" style="79" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" style="79" customWidth="1"/>
+    <col min="5383" max="5383" width="9.25" style="79" customWidth="1"/>
+    <col min="5384" max="5384" width="11.25" style="79" customWidth="1"/>
+    <col min="5385" max="5385" width="9.5" style="79" customWidth="1"/>
+    <col min="5386" max="5632" width="9" style="79"/>
+    <col min="5633" max="5633" width="11" style="79" customWidth="1"/>
+    <col min="5634" max="5634" width="21" style="79" customWidth="1"/>
+    <col min="5635" max="5635" width="21.625" style="79" customWidth="1"/>
+    <col min="5636" max="5636" width="12.125" style="79" customWidth="1"/>
+    <col min="5637" max="5637" width="13.375" style="79" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" style="79" customWidth="1"/>
+    <col min="5639" max="5639" width="9.25" style="79" customWidth="1"/>
+    <col min="5640" max="5640" width="11.25" style="79" customWidth="1"/>
+    <col min="5641" max="5641" width="9.5" style="79" customWidth="1"/>
+    <col min="5642" max="5888" width="9" style="79"/>
+    <col min="5889" max="5889" width="11" style="79" customWidth="1"/>
+    <col min="5890" max="5890" width="21" style="79" customWidth="1"/>
+    <col min="5891" max="5891" width="21.625" style="79" customWidth="1"/>
+    <col min="5892" max="5892" width="12.125" style="79" customWidth="1"/>
+    <col min="5893" max="5893" width="13.375" style="79" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" style="79" customWidth="1"/>
+    <col min="5895" max="5895" width="9.25" style="79" customWidth="1"/>
+    <col min="5896" max="5896" width="11.25" style="79" customWidth="1"/>
+    <col min="5897" max="5897" width="9.5" style="79" customWidth="1"/>
+    <col min="5898" max="6144" width="9" style="79"/>
+    <col min="6145" max="6145" width="11" style="79" customWidth="1"/>
+    <col min="6146" max="6146" width="21" style="79" customWidth="1"/>
+    <col min="6147" max="6147" width="21.625" style="79" customWidth="1"/>
+    <col min="6148" max="6148" width="12.125" style="79" customWidth="1"/>
+    <col min="6149" max="6149" width="13.375" style="79" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" style="79" customWidth="1"/>
+    <col min="6151" max="6151" width="9.25" style="79" customWidth="1"/>
+    <col min="6152" max="6152" width="11.25" style="79" customWidth="1"/>
+    <col min="6153" max="6153" width="9.5" style="79" customWidth="1"/>
+    <col min="6154" max="6400" width="9" style="79"/>
+    <col min="6401" max="6401" width="11" style="79" customWidth="1"/>
+    <col min="6402" max="6402" width="21" style="79" customWidth="1"/>
+    <col min="6403" max="6403" width="21.625" style="79" customWidth="1"/>
+    <col min="6404" max="6404" width="12.125" style="79" customWidth="1"/>
+    <col min="6405" max="6405" width="13.375" style="79" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" style="79" customWidth="1"/>
+    <col min="6407" max="6407" width="9.25" style="79" customWidth="1"/>
+    <col min="6408" max="6408" width="11.25" style="79" customWidth="1"/>
+    <col min="6409" max="6409" width="9.5" style="79" customWidth="1"/>
+    <col min="6410" max="6656" width="9" style="79"/>
+    <col min="6657" max="6657" width="11" style="79" customWidth="1"/>
+    <col min="6658" max="6658" width="21" style="79" customWidth="1"/>
+    <col min="6659" max="6659" width="21.625" style="79" customWidth="1"/>
+    <col min="6660" max="6660" width="12.125" style="79" customWidth="1"/>
+    <col min="6661" max="6661" width="13.375" style="79" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" style="79" customWidth="1"/>
+    <col min="6663" max="6663" width="9.25" style="79" customWidth="1"/>
+    <col min="6664" max="6664" width="11.25" style="79" customWidth="1"/>
+    <col min="6665" max="6665" width="9.5" style="79" customWidth="1"/>
+    <col min="6666" max="6912" width="9" style="79"/>
+    <col min="6913" max="6913" width="11" style="79" customWidth="1"/>
+    <col min="6914" max="6914" width="21" style="79" customWidth="1"/>
+    <col min="6915" max="6915" width="21.625" style="79" customWidth="1"/>
+    <col min="6916" max="6916" width="12.125" style="79" customWidth="1"/>
+    <col min="6917" max="6917" width="13.375" style="79" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" style="79" customWidth="1"/>
+    <col min="6919" max="6919" width="9.25" style="79" customWidth="1"/>
+    <col min="6920" max="6920" width="11.25" style="79" customWidth="1"/>
+    <col min="6921" max="6921" width="9.5" style="79" customWidth="1"/>
+    <col min="6922" max="7168" width="9" style="79"/>
+    <col min="7169" max="7169" width="11" style="79" customWidth="1"/>
+    <col min="7170" max="7170" width="21" style="79" customWidth="1"/>
+    <col min="7171" max="7171" width="21.625" style="79" customWidth="1"/>
+    <col min="7172" max="7172" width="12.125" style="79" customWidth="1"/>
+    <col min="7173" max="7173" width="13.375" style="79" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" style="79" customWidth="1"/>
+    <col min="7175" max="7175" width="9.25" style="79" customWidth="1"/>
+    <col min="7176" max="7176" width="11.25" style="79" customWidth="1"/>
+    <col min="7177" max="7177" width="9.5" style="79" customWidth="1"/>
+    <col min="7178" max="7424" width="9" style="79"/>
+    <col min="7425" max="7425" width="11" style="79" customWidth="1"/>
+    <col min="7426" max="7426" width="21" style="79" customWidth="1"/>
+    <col min="7427" max="7427" width="21.625" style="79" customWidth="1"/>
+    <col min="7428" max="7428" width="12.125" style="79" customWidth="1"/>
+    <col min="7429" max="7429" width="13.375" style="79" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" style="79" customWidth="1"/>
+    <col min="7431" max="7431" width="9.25" style="79" customWidth="1"/>
+    <col min="7432" max="7432" width="11.25" style="79" customWidth="1"/>
+    <col min="7433" max="7433" width="9.5" style="79" customWidth="1"/>
+    <col min="7434" max="7680" width="9" style="79"/>
+    <col min="7681" max="7681" width="11" style="79" customWidth="1"/>
+    <col min="7682" max="7682" width="21" style="79" customWidth="1"/>
+    <col min="7683" max="7683" width="21.625" style="79" customWidth="1"/>
+    <col min="7684" max="7684" width="12.125" style="79" customWidth="1"/>
+    <col min="7685" max="7685" width="13.375" style="79" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" style="79" customWidth="1"/>
+    <col min="7687" max="7687" width="9.25" style="79" customWidth="1"/>
+    <col min="7688" max="7688" width="11.25" style="79" customWidth="1"/>
+    <col min="7689" max="7689" width="9.5" style="79" customWidth="1"/>
+    <col min="7690" max="7936" width="9" style="79"/>
+    <col min="7937" max="7937" width="11" style="79" customWidth="1"/>
+    <col min="7938" max="7938" width="21" style="79" customWidth="1"/>
+    <col min="7939" max="7939" width="21.625" style="79" customWidth="1"/>
+    <col min="7940" max="7940" width="12.125" style="79" customWidth="1"/>
+    <col min="7941" max="7941" width="13.375" style="79" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" style="79" customWidth="1"/>
+    <col min="7943" max="7943" width="9.25" style="79" customWidth="1"/>
+    <col min="7944" max="7944" width="11.25" style="79" customWidth="1"/>
+    <col min="7945" max="7945" width="9.5" style="79" customWidth="1"/>
+    <col min="7946" max="8192" width="9" style="79"/>
+    <col min="8193" max="8193" width="11" style="79" customWidth="1"/>
+    <col min="8194" max="8194" width="21" style="79" customWidth="1"/>
+    <col min="8195" max="8195" width="21.625" style="79" customWidth="1"/>
+    <col min="8196" max="8196" width="12.125" style="79" customWidth="1"/>
+    <col min="8197" max="8197" width="13.375" style="79" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" style="79" customWidth="1"/>
+    <col min="8199" max="8199" width="9.25" style="79" customWidth="1"/>
+    <col min="8200" max="8200" width="11.25" style="79" customWidth="1"/>
+    <col min="8201" max="8201" width="9.5" style="79" customWidth="1"/>
+    <col min="8202" max="8448" width="9" style="79"/>
+    <col min="8449" max="8449" width="11" style="79" customWidth="1"/>
+    <col min="8450" max="8450" width="21" style="79" customWidth="1"/>
+    <col min="8451" max="8451" width="21.625" style="79" customWidth="1"/>
+    <col min="8452" max="8452" width="12.125" style="79" customWidth="1"/>
+    <col min="8453" max="8453" width="13.375" style="79" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" style="79" customWidth="1"/>
+    <col min="8455" max="8455" width="9.25" style="79" customWidth="1"/>
+    <col min="8456" max="8456" width="11.25" style="79" customWidth="1"/>
+    <col min="8457" max="8457" width="9.5" style="79" customWidth="1"/>
+    <col min="8458" max="8704" width="9" style="79"/>
+    <col min="8705" max="8705" width="11" style="79" customWidth="1"/>
+    <col min="8706" max="8706" width="21" style="79" customWidth="1"/>
+    <col min="8707" max="8707" width="21.625" style="79" customWidth="1"/>
+    <col min="8708" max="8708" width="12.125" style="79" customWidth="1"/>
+    <col min="8709" max="8709" width="13.375" style="79" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" style="79" customWidth="1"/>
+    <col min="8711" max="8711" width="9.25" style="79" customWidth="1"/>
+    <col min="8712" max="8712" width="11.25" style="79" customWidth="1"/>
+    <col min="8713" max="8713" width="9.5" style="79" customWidth="1"/>
+    <col min="8714" max="8960" width="9" style="79"/>
+    <col min="8961" max="8961" width="11" style="79" customWidth="1"/>
+    <col min="8962" max="8962" width="21" style="79" customWidth="1"/>
+    <col min="8963" max="8963" width="21.625" style="79" customWidth="1"/>
+    <col min="8964" max="8964" width="12.125" style="79" customWidth="1"/>
+    <col min="8965" max="8965" width="13.375" style="79" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" style="79" customWidth="1"/>
+    <col min="8967" max="8967" width="9.25" style="79" customWidth="1"/>
+    <col min="8968" max="8968" width="11.25" style="79" customWidth="1"/>
+    <col min="8969" max="8969" width="9.5" style="79" customWidth="1"/>
+    <col min="8970" max="9216" width="9" style="79"/>
+    <col min="9217" max="9217" width="11" style="79" customWidth="1"/>
+    <col min="9218" max="9218" width="21" style="79" customWidth="1"/>
+    <col min="9219" max="9219" width="21.625" style="79" customWidth="1"/>
+    <col min="9220" max="9220" width="12.125" style="79" customWidth="1"/>
+    <col min="9221" max="9221" width="13.375" style="79" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" style="79" customWidth="1"/>
+    <col min="9223" max="9223" width="9.25" style="79" customWidth="1"/>
+    <col min="9224" max="9224" width="11.25" style="79" customWidth="1"/>
+    <col min="9225" max="9225" width="9.5" style="79" customWidth="1"/>
+    <col min="9226" max="9472" width="9" style="79"/>
+    <col min="9473" max="9473" width="11" style="79" customWidth="1"/>
+    <col min="9474" max="9474" width="21" style="79" customWidth="1"/>
+    <col min="9475" max="9475" width="21.625" style="79" customWidth="1"/>
+    <col min="9476" max="9476" width="12.125" style="79" customWidth="1"/>
+    <col min="9477" max="9477" width="13.375" style="79" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" style="79" customWidth="1"/>
+    <col min="9479" max="9479" width="9.25" style="79" customWidth="1"/>
+    <col min="9480" max="9480" width="11.25" style="79" customWidth="1"/>
+    <col min="9481" max="9481" width="9.5" style="79" customWidth="1"/>
+    <col min="9482" max="9728" width="9" style="79"/>
+    <col min="9729" max="9729" width="11" style="79" customWidth="1"/>
+    <col min="9730" max="9730" width="21" style="79" customWidth="1"/>
+    <col min="9731" max="9731" width="21.625" style="79" customWidth="1"/>
+    <col min="9732" max="9732" width="12.125" style="79" customWidth="1"/>
+    <col min="9733" max="9733" width="13.375" style="79" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" style="79" customWidth="1"/>
+    <col min="9735" max="9735" width="9.25" style="79" customWidth="1"/>
+    <col min="9736" max="9736" width="11.25" style="79" customWidth="1"/>
+    <col min="9737" max="9737" width="9.5" style="79" customWidth="1"/>
+    <col min="9738" max="9984" width="9" style="79"/>
+    <col min="9985" max="9985" width="11" style="79" customWidth="1"/>
+    <col min="9986" max="9986" width="21" style="79" customWidth="1"/>
+    <col min="9987" max="9987" width="21.625" style="79" customWidth="1"/>
+    <col min="9988" max="9988" width="12.125" style="79" customWidth="1"/>
+    <col min="9989" max="9989" width="13.375" style="79" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" style="79" customWidth="1"/>
+    <col min="9991" max="9991" width="9.25" style="79" customWidth="1"/>
+    <col min="9992" max="9992" width="11.25" style="79" customWidth="1"/>
+    <col min="9993" max="9993" width="9.5" style="79" customWidth="1"/>
+    <col min="9994" max="10240" width="9" style="79"/>
+    <col min="10241" max="10241" width="11" style="79" customWidth="1"/>
+    <col min="10242" max="10242" width="21" style="79" customWidth="1"/>
+    <col min="10243" max="10243" width="21.625" style="79" customWidth="1"/>
+    <col min="10244" max="10244" width="12.125" style="79" customWidth="1"/>
+    <col min="10245" max="10245" width="13.375" style="79" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" style="79" customWidth="1"/>
+    <col min="10247" max="10247" width="9.25" style="79" customWidth="1"/>
+    <col min="10248" max="10248" width="11.25" style="79" customWidth="1"/>
+    <col min="10249" max="10249" width="9.5" style="79" customWidth="1"/>
+    <col min="10250" max="10496" width="9" style="79"/>
+    <col min="10497" max="10497" width="11" style="79" customWidth="1"/>
+    <col min="10498" max="10498" width="21" style="79" customWidth="1"/>
+    <col min="10499" max="10499" width="21.625" style="79" customWidth="1"/>
+    <col min="10500" max="10500" width="12.125" style="79" customWidth="1"/>
+    <col min="10501" max="10501" width="13.375" style="79" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" style="79" customWidth="1"/>
+    <col min="10503" max="10503" width="9.25" style="79" customWidth="1"/>
+    <col min="10504" max="10504" width="11.25" style="79" customWidth="1"/>
+    <col min="10505" max="10505" width="9.5" style="79" customWidth="1"/>
+    <col min="10506" max="10752" width="9" style="79"/>
+    <col min="10753" max="10753" width="11" style="79" customWidth="1"/>
+    <col min="10754" max="10754" width="21" style="79" customWidth="1"/>
+    <col min="10755" max="10755" width="21.625" style="79" customWidth="1"/>
+    <col min="10756" max="10756" width="12.125" style="79" customWidth="1"/>
+    <col min="10757" max="10757" width="13.375" style="79" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" style="79" customWidth="1"/>
+    <col min="10759" max="10759" width="9.25" style="79" customWidth="1"/>
+    <col min="10760" max="10760" width="11.25" style="79" customWidth="1"/>
+    <col min="10761" max="10761" width="9.5" style="79" customWidth="1"/>
+    <col min="10762" max="11008" width="9" style="79"/>
+    <col min="11009" max="11009" width="11" style="79" customWidth="1"/>
+    <col min="11010" max="11010" width="21" style="79" customWidth="1"/>
+    <col min="11011" max="11011" width="21.625" style="79" customWidth="1"/>
+    <col min="11012" max="11012" width="12.125" style="79" customWidth="1"/>
+    <col min="11013" max="11013" width="13.375" style="79" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" style="79" customWidth="1"/>
+    <col min="11015" max="11015" width="9.25" style="79" customWidth="1"/>
+    <col min="11016" max="11016" width="11.25" style="79" customWidth="1"/>
+    <col min="11017" max="11017" width="9.5" style="79" customWidth="1"/>
+    <col min="11018" max="11264" width="9" style="79"/>
+    <col min="11265" max="11265" width="11" style="79" customWidth="1"/>
+    <col min="11266" max="11266" width="21" style="79" customWidth="1"/>
+    <col min="11267" max="11267" width="21.625" style="79" customWidth="1"/>
+    <col min="11268" max="11268" width="12.125" style="79" customWidth="1"/>
+    <col min="11269" max="11269" width="13.375" style="79" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" style="79" customWidth="1"/>
+    <col min="11271" max="11271" width="9.25" style="79" customWidth="1"/>
+    <col min="11272" max="11272" width="11.25" style="79" customWidth="1"/>
+    <col min="11273" max="11273" width="9.5" style="79" customWidth="1"/>
+    <col min="11274" max="11520" width="9" style="79"/>
+    <col min="11521" max="11521" width="11" style="79" customWidth="1"/>
+    <col min="11522" max="11522" width="21" style="79" customWidth="1"/>
+    <col min="11523" max="11523" width="21.625" style="79" customWidth="1"/>
+    <col min="11524" max="11524" width="12.125" style="79" customWidth="1"/>
+    <col min="11525" max="11525" width="13.375" style="79" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" style="79" customWidth="1"/>
+    <col min="11527" max="11527" width="9.25" style="79" customWidth="1"/>
+    <col min="11528" max="11528" width="11.25" style="79" customWidth="1"/>
+    <col min="11529" max="11529" width="9.5" style="79" customWidth="1"/>
+    <col min="11530" max="11776" width="9" style="79"/>
+    <col min="11777" max="11777" width="11" style="79" customWidth="1"/>
+    <col min="11778" max="11778" width="21" style="79" customWidth="1"/>
+    <col min="11779" max="11779" width="21.625" style="79" customWidth="1"/>
+    <col min="11780" max="11780" width="12.125" style="79" customWidth="1"/>
+    <col min="11781" max="11781" width="13.375" style="79" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" style="79" customWidth="1"/>
+    <col min="11783" max="11783" width="9.25" style="79" customWidth="1"/>
+    <col min="11784" max="11784" width="11.25" style="79" customWidth="1"/>
+    <col min="11785" max="11785" width="9.5" style="79" customWidth="1"/>
+    <col min="11786" max="12032" width="9" style="79"/>
+    <col min="12033" max="12033" width="11" style="79" customWidth="1"/>
+    <col min="12034" max="12034" width="21" style="79" customWidth="1"/>
+    <col min="12035" max="12035" width="21.625" style="79" customWidth="1"/>
+    <col min="12036" max="12036" width="12.125" style="79" customWidth="1"/>
+    <col min="12037" max="12037" width="13.375" style="79" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" style="79" customWidth="1"/>
+    <col min="12039" max="12039" width="9.25" style="79" customWidth="1"/>
+    <col min="12040" max="12040" width="11.25" style="79" customWidth="1"/>
+    <col min="12041" max="12041" width="9.5" style="79" customWidth="1"/>
+    <col min="12042" max="12288" width="9" style="79"/>
+    <col min="12289" max="12289" width="11" style="79" customWidth="1"/>
+    <col min="12290" max="12290" width="21" style="79" customWidth="1"/>
+    <col min="12291" max="12291" width="21.625" style="79" customWidth="1"/>
+    <col min="12292" max="12292" width="12.125" style="79" customWidth="1"/>
+    <col min="12293" max="12293" width="13.375" style="79" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" style="79" customWidth="1"/>
+    <col min="12295" max="12295" width="9.25" style="79" customWidth="1"/>
+    <col min="12296" max="12296" width="11.25" style="79" customWidth="1"/>
+    <col min="12297" max="12297" width="9.5" style="79" customWidth="1"/>
+    <col min="12298" max="12544" width="9" style="79"/>
+    <col min="12545" max="12545" width="11" style="79" customWidth="1"/>
+    <col min="12546" max="12546" width="21" style="79" customWidth="1"/>
+    <col min="12547" max="12547" width="21.625" style="79" customWidth="1"/>
+    <col min="12548" max="12548" width="12.125" style="79" customWidth="1"/>
+    <col min="12549" max="12549" width="13.375" style="79" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" style="79" customWidth="1"/>
+    <col min="12551" max="12551" width="9.25" style="79" customWidth="1"/>
+    <col min="12552" max="12552" width="11.25" style="79" customWidth="1"/>
+    <col min="12553" max="12553" width="9.5" style="79" customWidth="1"/>
+    <col min="12554" max="12800" width="9" style="79"/>
+    <col min="12801" max="12801" width="11" style="79" customWidth="1"/>
+    <col min="12802" max="12802" width="21" style="79" customWidth="1"/>
+    <col min="12803" max="12803" width="21.625" style="79" customWidth="1"/>
+    <col min="12804" max="12804" width="12.125" style="79" customWidth="1"/>
+    <col min="12805" max="12805" width="13.375" style="79" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" style="79" customWidth="1"/>
+    <col min="12807" max="12807" width="9.25" style="79" customWidth="1"/>
+    <col min="12808" max="12808" width="11.25" style="79" customWidth="1"/>
+    <col min="12809" max="12809" width="9.5" style="79" customWidth="1"/>
+    <col min="12810" max="13056" width="9" style="79"/>
+    <col min="13057" max="13057" width="11" style="79" customWidth="1"/>
+    <col min="13058" max="13058" width="21" style="79" customWidth="1"/>
+    <col min="13059" max="13059" width="21.625" style="79" customWidth="1"/>
+    <col min="13060" max="13060" width="12.125" style="79" customWidth="1"/>
+    <col min="13061" max="13061" width="13.375" style="79" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" style="79" customWidth="1"/>
+    <col min="13063" max="13063" width="9.25" style="79" customWidth="1"/>
+    <col min="13064" max="13064" width="11.25" style="79" customWidth="1"/>
+    <col min="13065" max="13065" width="9.5" style="79" customWidth="1"/>
+    <col min="13066" max="13312" width="9" style="79"/>
+    <col min="13313" max="13313" width="11" style="79" customWidth="1"/>
+    <col min="13314" max="13314" width="21" style="79" customWidth="1"/>
+    <col min="13315" max="13315" width="21.625" style="79" customWidth="1"/>
+    <col min="13316" max="13316" width="12.125" style="79" customWidth="1"/>
+    <col min="13317" max="13317" width="13.375" style="79" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" style="79" customWidth="1"/>
+    <col min="13319" max="13319" width="9.25" style="79" customWidth="1"/>
+    <col min="13320" max="13320" width="11.25" style="79" customWidth="1"/>
+    <col min="13321" max="13321" width="9.5" style="79" customWidth="1"/>
+    <col min="13322" max="13568" width="9" style="79"/>
+    <col min="13569" max="13569" width="11" style="79" customWidth="1"/>
+    <col min="13570" max="13570" width="21" style="79" customWidth="1"/>
+    <col min="13571" max="13571" width="21.625" style="79" customWidth="1"/>
+    <col min="13572" max="13572" width="12.125" style="79" customWidth="1"/>
+    <col min="13573" max="13573" width="13.375" style="79" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" style="79" customWidth="1"/>
+    <col min="13575" max="13575" width="9.25" style="79" customWidth="1"/>
+    <col min="13576" max="13576" width="11.25" style="79" customWidth="1"/>
+    <col min="13577" max="13577" width="9.5" style="79" customWidth="1"/>
+    <col min="13578" max="13824" width="9" style="79"/>
+    <col min="13825" max="13825" width="11" style="79" customWidth="1"/>
+    <col min="13826" max="13826" width="21" style="79" customWidth="1"/>
+    <col min="13827" max="13827" width="21.625" style="79" customWidth="1"/>
+    <col min="13828" max="13828" width="12.125" style="79" customWidth="1"/>
+    <col min="13829" max="13829" width="13.375" style="79" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" style="79" customWidth="1"/>
+    <col min="13831" max="13831" width="9.25" style="79" customWidth="1"/>
+    <col min="13832" max="13832" width="11.25" style="79" customWidth="1"/>
+    <col min="13833" max="13833" width="9.5" style="79" customWidth="1"/>
+    <col min="13834" max="14080" width="9" style="79"/>
+    <col min="14081" max="14081" width="11" style="79" customWidth="1"/>
+    <col min="14082" max="14082" width="21" style="79" customWidth="1"/>
+    <col min="14083" max="14083" width="21.625" style="79" customWidth="1"/>
+    <col min="14084" max="14084" width="12.125" style="79" customWidth="1"/>
+    <col min="14085" max="14085" width="13.375" style="79" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" style="79" customWidth="1"/>
+    <col min="14087" max="14087" width="9.25" style="79" customWidth="1"/>
+    <col min="14088" max="14088" width="11.25" style="79" customWidth="1"/>
+    <col min="14089" max="14089" width="9.5" style="79" customWidth="1"/>
+    <col min="14090" max="14336" width="9" style="79"/>
+    <col min="14337" max="14337" width="11" style="79" customWidth="1"/>
+    <col min="14338" max="14338" width="21" style="79" customWidth="1"/>
+    <col min="14339" max="14339" width="21.625" style="79" customWidth="1"/>
+    <col min="14340" max="14340" width="12.125" style="79" customWidth="1"/>
+    <col min="14341" max="14341" width="13.375" style="79" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" style="79" customWidth="1"/>
+    <col min="14343" max="14343" width="9.25" style="79" customWidth="1"/>
+    <col min="14344" max="14344" width="11.25" style="79" customWidth="1"/>
+    <col min="14345" max="14345" width="9.5" style="79" customWidth="1"/>
+    <col min="14346" max="14592" width="9" style="79"/>
+    <col min="14593" max="14593" width="11" style="79" customWidth="1"/>
+    <col min="14594" max="14594" width="21" style="79" customWidth="1"/>
+    <col min="14595" max="14595" width="21.625" style="79" customWidth="1"/>
+    <col min="14596" max="14596" width="12.125" style="79" customWidth="1"/>
+    <col min="14597" max="14597" width="13.375" style="79" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" style="79" customWidth="1"/>
+    <col min="14599" max="14599" width="9.25" style="79" customWidth="1"/>
+    <col min="14600" max="14600" width="11.25" style="79" customWidth="1"/>
+    <col min="14601" max="14601" width="9.5" style="79" customWidth="1"/>
+    <col min="14602" max="14848" width="9" style="79"/>
+    <col min="14849" max="14849" width="11" style="79" customWidth="1"/>
+    <col min="14850" max="14850" width="21" style="79" customWidth="1"/>
+    <col min="14851" max="14851" width="21.625" style="79" customWidth="1"/>
+    <col min="14852" max="14852" width="12.125" style="79" customWidth="1"/>
+    <col min="14853" max="14853" width="13.375" style="79" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" style="79" customWidth="1"/>
+    <col min="14855" max="14855" width="9.25" style="79" customWidth="1"/>
+    <col min="14856" max="14856" width="11.25" style="79" customWidth="1"/>
+    <col min="14857" max="14857" width="9.5" style="79" customWidth="1"/>
+    <col min="14858" max="15104" width="9" style="79"/>
+    <col min="15105" max="15105" width="11" style="79" customWidth="1"/>
+    <col min="15106" max="15106" width="21" style="79" customWidth="1"/>
+    <col min="15107" max="15107" width="21.625" style="79" customWidth="1"/>
+    <col min="15108" max="15108" width="12.125" style="79" customWidth="1"/>
+    <col min="15109" max="15109" width="13.375" style="79" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" style="79" customWidth="1"/>
+    <col min="15111" max="15111" width="9.25" style="79" customWidth="1"/>
+    <col min="15112" max="15112" width="11.25" style="79" customWidth="1"/>
+    <col min="15113" max="15113" width="9.5" style="79" customWidth="1"/>
+    <col min="15114" max="15360" width="9" style="79"/>
+    <col min="15361" max="15361" width="11" style="79" customWidth="1"/>
+    <col min="15362" max="15362" width="21" style="79" customWidth="1"/>
+    <col min="15363" max="15363" width="21.625" style="79" customWidth="1"/>
+    <col min="15364" max="15364" width="12.125" style="79" customWidth="1"/>
+    <col min="15365" max="15365" width="13.375" style="79" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" style="79" customWidth="1"/>
+    <col min="15367" max="15367" width="9.25" style="79" customWidth="1"/>
+    <col min="15368" max="15368" width="11.25" style="79" customWidth="1"/>
+    <col min="15369" max="15369" width="9.5" style="79" customWidth="1"/>
+    <col min="15370" max="15616" width="9" style="79"/>
+    <col min="15617" max="15617" width="11" style="79" customWidth="1"/>
+    <col min="15618" max="15618" width="21" style="79" customWidth="1"/>
+    <col min="15619" max="15619" width="21.625" style="79" customWidth="1"/>
+    <col min="15620" max="15620" width="12.125" style="79" customWidth="1"/>
+    <col min="15621" max="15621" width="13.375" style="79" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" style="79" customWidth="1"/>
+    <col min="15623" max="15623" width="9.25" style="79" customWidth="1"/>
+    <col min="15624" max="15624" width="11.25" style="79" customWidth="1"/>
+    <col min="15625" max="15625" width="9.5" style="79" customWidth="1"/>
+    <col min="15626" max="15872" width="9" style="79"/>
+    <col min="15873" max="15873" width="11" style="79" customWidth="1"/>
+    <col min="15874" max="15874" width="21" style="79" customWidth="1"/>
+    <col min="15875" max="15875" width="21.625" style="79" customWidth="1"/>
+    <col min="15876" max="15876" width="12.125" style="79" customWidth="1"/>
+    <col min="15877" max="15877" width="13.375" style="79" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" style="79" customWidth="1"/>
+    <col min="15879" max="15879" width="9.25" style="79" customWidth="1"/>
+    <col min="15880" max="15880" width="11.25" style="79" customWidth="1"/>
+    <col min="15881" max="15881" width="9.5" style="79" customWidth="1"/>
+    <col min="15882" max="16128" width="9" style="79"/>
+    <col min="16129" max="16129" width="11" style="79" customWidth="1"/>
+    <col min="16130" max="16130" width="21" style="79" customWidth="1"/>
+    <col min="16131" max="16131" width="21.625" style="79" customWidth="1"/>
+    <col min="16132" max="16132" width="12.125" style="79" customWidth="1"/>
+    <col min="16133" max="16133" width="13.375" style="79" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" style="79" customWidth="1"/>
+    <col min="16135" max="16135" width="9.25" style="79" customWidth="1"/>
+    <col min="16136" max="16136" width="11.25" style="79" customWidth="1"/>
+    <col min="16137" max="16137" width="9.5" style="79" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="79"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:83" ht="12" customHeight="1">
+      <c r="A1" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="78"/>
+    </row>
+    <row r="2" spans="1:83" ht="12" customHeight="1">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
+    </row>
+    <row r="3" spans="1:83" ht="12" customHeight="1">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+    </row>
+    <row r="4" spans="1:83" ht="13.5" customHeight="1">
+      <c r="A4" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="86"/>
+    </row>
+    <row r="5" spans="1:83" ht="8.25" customHeight="1">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+    </row>
+    <row r="6" spans="1:83" ht="14.25" customHeight="1">
+      <c r="A6" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:83" ht="14.25" customHeight="1">
+      <c r="A7" s="87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:83" ht="14.25" customHeight="1">
+      <c r="A8" s="87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:83" ht="14.25" customHeight="1">
+      <c r="A9" s="87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:83" ht="6.75" customHeight="1"/>
+    <row r="11" spans="1:83" s="96" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A11" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="97"/>
+      <c r="AH11" s="97"/>
+      <c r="AI11" s="97"/>
+      <c r="AJ11" s="97"/>
+      <c r="AK11" s="97"/>
+      <c r="AL11" s="97"/>
+      <c r="AM11" s="97"/>
+      <c r="AN11" s="97"/>
+      <c r="AO11" s="97"/>
+      <c r="AP11" s="97"/>
+      <c r="AQ11" s="97"/>
+      <c r="AR11" s="97"/>
+      <c r="AS11" s="97"/>
+      <c r="AT11" s="97"/>
+      <c r="AU11" s="97"/>
+      <c r="AV11" s="97"/>
+      <c r="AW11" s="97"/>
+      <c r="AX11" s="97"/>
+      <c r="AY11" s="97"/>
+      <c r="AZ11" s="97"/>
+      <c r="BA11" s="97"/>
+      <c r="BB11" s="97"/>
+      <c r="BC11" s="97"/>
+      <c r="BD11" s="97"/>
+      <c r="BE11" s="97"/>
+      <c r="BF11" s="97"/>
+      <c r="BG11" s="97"/>
+      <c r="BH11" s="97"/>
+      <c r="BI11" s="97"/>
+      <c r="BJ11" s="97"/>
+      <c r="BK11" s="97"/>
+      <c r="BL11" s="97"/>
+      <c r="BM11" s="97"/>
+      <c r="BN11" s="97"/>
+      <c r="BO11" s="97"/>
+      <c r="BP11" s="97"/>
+      <c r="BQ11" s="97"/>
+      <c r="BR11" s="97"/>
+      <c r="BS11" s="97"/>
+      <c r="BT11" s="97"/>
+      <c r="BU11" s="97"/>
+      <c r="BV11" s="97"/>
+      <c r="BW11" s="97"/>
+      <c r="BX11" s="97"/>
+      <c r="BY11" s="97"/>
+      <c r="BZ11" s="97"/>
+      <c r="CA11" s="97"/>
+      <c r="CB11" s="97"/>
+      <c r="CC11" s="97"/>
+      <c r="CD11" s="97"/>
+      <c r="CE11" s="97"/>
+    </row>
+    <row r="12" spans="1:83" s="96" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A12" s="98"/>
+      <c r="B12" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="95"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="97"/>
+      <c r="AH12" s="97"/>
+      <c r="AI12" s="97"/>
+      <c r="AJ12" s="97"/>
+      <c r="AK12" s="97"/>
+      <c r="AL12" s="97"/>
+      <c r="AM12" s="97"/>
+      <c r="AN12" s="97"/>
+      <c r="AO12" s="97"/>
+      <c r="AP12" s="97"/>
+      <c r="AQ12" s="97"/>
+      <c r="AR12" s="97"/>
+      <c r="AS12" s="97"/>
+      <c r="AT12" s="97"/>
+      <c r="AU12" s="97"/>
+      <c r="AV12" s="97"/>
+      <c r="AW12" s="97"/>
+      <c r="AX12" s="97"/>
+      <c r="AY12" s="97"/>
+      <c r="AZ12" s="97"/>
+      <c r="BA12" s="97"/>
+      <c r="BB12" s="97"/>
+      <c r="BC12" s="97"/>
+      <c r="BD12" s="97"/>
+      <c r="BE12" s="97"/>
+      <c r="BF12" s="97"/>
+      <c r="BG12" s="97"/>
+      <c r="BH12" s="97"/>
+      <c r="BI12" s="97"/>
+      <c r="BJ12" s="97"/>
+      <c r="BK12" s="97"/>
+      <c r="BL12" s="97"/>
+      <c r="BM12" s="97"/>
+      <c r="BN12" s="97"/>
+      <c r="BO12" s="97"/>
+      <c r="BP12" s="97"/>
+      <c r="BQ12" s="97"/>
+      <c r="BR12" s="97"/>
+      <c r="BS12" s="97"/>
+      <c r="BT12" s="97"/>
+      <c r="BU12" s="97"/>
+      <c r="BV12" s="97"/>
+      <c r="BW12" s="97"/>
+      <c r="BX12" s="97"/>
+      <c r="BY12" s="97"/>
+      <c r="BZ12" s="97"/>
+      <c r="CA12" s="97"/>
+      <c r="CB12" s="97"/>
+      <c r="CC12" s="97"/>
+      <c r="CD12" s="97"/>
+      <c r="CE12" s="97"/>
+    </row>
+    <row r="13" spans="1:83" s="105" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A13" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="102">
+        <v>2</v>
+      </c>
+      <c r="C13" s="102">
+        <v>3</v>
+      </c>
+      <c r="D13" s="102">
+        <v>4</v>
+      </c>
+      <c r="E13" s="102">
+        <v>5</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="102">
+        <v>8</v>
+      </c>
+      <c r="I13" s="102">
+        <v>9</v>
+      </c>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="104"/>
+      <c r="AI13" s="104"/>
+      <c r="AJ13" s="104"/>
+      <c r="AK13" s="104"/>
+      <c r="AL13" s="104"/>
+      <c r="AM13" s="104"/>
+      <c r="AN13" s="104"/>
+      <c r="AO13" s="104"/>
+      <c r="AP13" s="104"/>
+      <c r="AQ13" s="104"/>
+      <c r="AR13" s="104"/>
+      <c r="AS13" s="104"/>
+      <c r="AT13" s="104"/>
+      <c r="AU13" s="104"/>
+      <c r="AV13" s="104"/>
+      <c r="AW13" s="104"/>
+      <c r="AX13" s="104"/>
+      <c r="AY13" s="104"/>
+      <c r="AZ13" s="104"/>
+      <c r="BA13" s="104"/>
+      <c r="BB13" s="104"/>
+      <c r="BC13" s="104"/>
+      <c r="BD13" s="104"/>
+      <c r="BE13" s="104"/>
+      <c r="BF13" s="104"/>
+      <c r="BG13" s="104"/>
+      <c r="BH13" s="104"/>
+      <c r="BI13" s="104"/>
+      <c r="BJ13" s="104"/>
+      <c r="BK13" s="104"/>
+      <c r="BL13" s="104"/>
+      <c r="BM13" s="104"/>
+      <c r="BN13" s="104"/>
+      <c r="BO13" s="104"/>
+      <c r="BP13" s="104"/>
+      <c r="BQ13" s="104"/>
+      <c r="BR13" s="104"/>
+      <c r="BS13" s="104"/>
+      <c r="BT13" s="104"/>
+      <c r="BU13" s="104"/>
+      <c r="BV13" s="104"/>
+      <c r="BW13" s="104"/>
+      <c r="BX13" s="104"/>
+      <c r="BY13" s="104"/>
+      <c r="BZ13" s="104"/>
+      <c r="CA13" s="104"/>
+      <c r="CB13" s="104"/>
+      <c r="CC13" s="104"/>
+      <c r="CD13" s="104"/>
+      <c r="CE13" s="104"/>
+    </row>
+    <row r="14" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A14" s="106">
+        <v>42415</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="107" t="str">
+        <f>VLOOKUP(B14,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D14" s="107">
+        <f>VLOOKUP(B14,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>260456563</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="47">
+        <v>7083</v>
+      </c>
+      <c r="G14" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H14" s="109">
+        <f t="shared" ref="H14:H31" si="0">F14*G14</f>
+        <v>95620500</v>
+      </c>
+      <c r="I14" s="110"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="112"/>
+      <c r="T14" s="112"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="112"/>
+      <c r="W14" s="112"/>
+      <c r="X14" s="112"/>
+      <c r="Y14" s="112"/>
+      <c r="Z14" s="112"/>
+      <c r="AA14" s="112"/>
+      <c r="AB14" s="112"/>
+      <c r="AC14" s="112"/>
+      <c r="AD14" s="112"/>
+      <c r="AE14" s="112"/>
+      <c r="AF14" s="112"/>
+      <c r="AG14" s="112"/>
+      <c r="AH14" s="112"/>
+      <c r="AI14" s="112"/>
+      <c r="AJ14" s="112"/>
+      <c r="AK14" s="112"/>
+      <c r="AL14" s="112"/>
+      <c r="AM14" s="112"/>
+      <c r="AN14" s="112"/>
+      <c r="AO14" s="112"/>
+      <c r="AP14" s="112"/>
+      <c r="AQ14" s="112"/>
+      <c r="AR14" s="112"/>
+      <c r="AS14" s="112"/>
+      <c r="AT14" s="112"/>
+      <c r="AU14" s="112"/>
+      <c r="AV14" s="112"/>
+      <c r="AW14" s="112"/>
+      <c r="AX14" s="112"/>
+      <c r="AY14" s="112"/>
+      <c r="AZ14" s="112"/>
+      <c r="BA14" s="112"/>
+      <c r="BB14" s="112"/>
+      <c r="BC14" s="112"/>
+      <c r="BD14" s="112"/>
+      <c r="BE14" s="112"/>
+      <c r="BF14" s="112"/>
+      <c r="BG14" s="112"/>
+      <c r="BH14" s="112"/>
+      <c r="BI14" s="112"/>
+      <c r="BJ14" s="112"/>
+      <c r="BK14" s="112"/>
+      <c r="BL14" s="112"/>
+      <c r="BM14" s="112"/>
+      <c r="BN14" s="112"/>
+      <c r="BO14" s="112"/>
+      <c r="BP14" s="112"/>
+      <c r="BQ14" s="112"/>
+      <c r="BR14" s="112"/>
+      <c r="BS14" s="112"/>
+      <c r="BT14" s="112"/>
+      <c r="BU14" s="112"/>
+      <c r="BV14" s="112"/>
+      <c r="BW14" s="112"/>
+      <c r="BX14" s="112"/>
+      <c r="BY14" s="112"/>
+      <c r="BZ14" s="112"/>
+      <c r="CA14" s="112"/>
+      <c r="CB14" s="112"/>
+      <c r="CC14" s="112"/>
+      <c r="CD14" s="112"/>
+      <c r="CE14" s="112"/>
+    </row>
+    <row r="15" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A15" s="106">
+        <v>42415</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="107" t="str">
+        <f>VLOOKUP(B15,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D15" s="107">
+        <f>VLOOKUP(B15,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>261183075</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="47">
+        <v>7950</v>
+      </c>
+      <c r="G15" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H15" s="109">
+        <f t="shared" si="0"/>
+        <v>107325000</v>
+      </c>
+      <c r="I15" s="114"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="112"/>
+      <c r="T15" s="112"/>
+      <c r="U15" s="112"/>
+      <c r="V15" s="112"/>
+      <c r="W15" s="112"/>
+      <c r="X15" s="112"/>
+      <c r="Y15" s="112"/>
+      <c r="Z15" s="112"/>
+      <c r="AA15" s="112"/>
+      <c r="AB15" s="112"/>
+      <c r="AC15" s="112"/>
+      <c r="AD15" s="112"/>
+      <c r="AE15" s="112"/>
+      <c r="AF15" s="112"/>
+      <c r="AG15" s="112"/>
+      <c r="AH15" s="112"/>
+      <c r="AI15" s="112"/>
+      <c r="AJ15" s="112"/>
+      <c r="AK15" s="112"/>
+      <c r="AL15" s="112"/>
+      <c r="AM15" s="112"/>
+      <c r="AN15" s="112"/>
+      <c r="AO15" s="112"/>
+      <c r="AP15" s="112"/>
+      <c r="AQ15" s="112"/>
+      <c r="AR15" s="112"/>
+      <c r="AS15" s="112"/>
+      <c r="AT15" s="112"/>
+      <c r="AU15" s="112"/>
+      <c r="AV15" s="112"/>
+      <c r="AW15" s="112"/>
+      <c r="AX15" s="112"/>
+      <c r="AY15" s="112"/>
+      <c r="AZ15" s="112"/>
+      <c r="BA15" s="112"/>
+      <c r="BB15" s="112"/>
+      <c r="BC15" s="112"/>
+      <c r="BD15" s="112"/>
+      <c r="BE15" s="112"/>
+      <c r="BF15" s="112"/>
+      <c r="BG15" s="112"/>
+      <c r="BH15" s="112"/>
+      <c r="BI15" s="112"/>
+      <c r="BJ15" s="112"/>
+      <c r="BK15" s="112"/>
+      <c r="BL15" s="112"/>
+      <c r="BM15" s="112"/>
+      <c r="BN15" s="112"/>
+      <c r="BO15" s="112"/>
+      <c r="BP15" s="112"/>
+      <c r="BQ15" s="112"/>
+      <c r="BR15" s="112"/>
+      <c r="BS15" s="112"/>
+      <c r="BT15" s="112"/>
+      <c r="BU15" s="112"/>
+      <c r="BV15" s="112"/>
+      <c r="BW15" s="112"/>
+      <c r="BX15" s="112"/>
+      <c r="BY15" s="112"/>
+      <c r="BZ15" s="112"/>
+      <c r="CA15" s="112"/>
+      <c r="CB15" s="112"/>
+      <c r="CC15" s="112"/>
+      <c r="CD15" s="112"/>
+      <c r="CE15" s="112"/>
+    </row>
+    <row r="16" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A16" s="106">
+        <v>42415</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="107" t="str">
+        <f>VLOOKUP(B16,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D16" s="107">
+        <f>VLOOKUP(B16,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>270106056</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="47">
+        <v>7830</v>
+      </c>
+      <c r="G16" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H16" s="109">
+        <f t="shared" si="0"/>
+        <v>105705000</v>
+      </c>
+      <c r="I16" s="114"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="112"/>
+      <c r="U16" s="112"/>
+      <c r="V16" s="112"/>
+      <c r="W16" s="112"/>
+      <c r="X16" s="112"/>
+      <c r="Y16" s="112"/>
+      <c r="Z16" s="112"/>
+      <c r="AA16" s="112"/>
+      <c r="AB16" s="112"/>
+      <c r="AC16" s="112"/>
+      <c r="AD16" s="112"/>
+      <c r="AE16" s="112"/>
+      <c r="AF16" s="112"/>
+      <c r="AG16" s="112"/>
+      <c r="AH16" s="112"/>
+      <c r="AI16" s="112"/>
+      <c r="AJ16" s="112"/>
+      <c r="AK16" s="112"/>
+      <c r="AL16" s="112"/>
+      <c r="AM16" s="112"/>
+      <c r="AN16" s="112"/>
+      <c r="AO16" s="112"/>
+      <c r="AP16" s="112"/>
+      <c r="AQ16" s="112"/>
+      <c r="AR16" s="112"/>
+      <c r="AS16" s="112"/>
+      <c r="AT16" s="112"/>
+      <c r="AU16" s="112"/>
+      <c r="AV16" s="112"/>
+      <c r="AW16" s="112"/>
+      <c r="AX16" s="112"/>
+      <c r="AY16" s="112"/>
+      <c r="AZ16" s="112"/>
+      <c r="BA16" s="112"/>
+      <c r="BB16" s="112"/>
+      <c r="BC16" s="112"/>
+      <c r="BD16" s="112"/>
+      <c r="BE16" s="112"/>
+      <c r="BF16" s="112"/>
+      <c r="BG16" s="112"/>
+      <c r="BH16" s="112"/>
+      <c r="BI16" s="112"/>
+      <c r="BJ16" s="112"/>
+      <c r="BK16" s="112"/>
+      <c r="BL16" s="112"/>
+      <c r="BM16" s="112"/>
+      <c r="BN16" s="112"/>
+      <c r="BO16" s="112"/>
+      <c r="BP16" s="112"/>
+      <c r="BQ16" s="112"/>
+      <c r="BR16" s="112"/>
+      <c r="BS16" s="112"/>
+      <c r="BT16" s="112"/>
+      <c r="BU16" s="112"/>
+      <c r="BV16" s="112"/>
+      <c r="BW16" s="112"/>
+      <c r="BX16" s="112"/>
+      <c r="BY16" s="112"/>
+      <c r="BZ16" s="112"/>
+      <c r="CA16" s="112"/>
+      <c r="CB16" s="112"/>
+      <c r="CC16" s="112"/>
+      <c r="CD16" s="112"/>
+      <c r="CE16" s="112"/>
+    </row>
+    <row r="17" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A17" s="106">
+        <v>42415</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="107" t="str">
+        <f>VLOOKUP(B17,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D17" s="107">
+        <f>VLOOKUP(B17,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>270176684</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="47">
+        <v>7780</v>
+      </c>
+      <c r="G17" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H17" s="109">
+        <f t="shared" si="0"/>
+        <v>105030000</v>
+      </c>
+      <c r="I17" s="114"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="112"/>
+      <c r="V17" s="112"/>
+      <c r="W17" s="112"/>
+      <c r="X17" s="112"/>
+      <c r="Y17" s="112"/>
+      <c r="Z17" s="112"/>
+      <c r="AA17" s="112"/>
+      <c r="AB17" s="112"/>
+      <c r="AC17" s="112"/>
+      <c r="AD17" s="112"/>
+      <c r="AE17" s="112"/>
+      <c r="AF17" s="112"/>
+      <c r="AG17" s="112"/>
+      <c r="AH17" s="112"/>
+      <c r="AI17" s="112"/>
+      <c r="AJ17" s="112"/>
+      <c r="AK17" s="112"/>
+      <c r="AL17" s="112"/>
+      <c r="AM17" s="112"/>
+      <c r="AN17" s="112"/>
+      <c r="AO17" s="112"/>
+      <c r="AP17" s="112"/>
+      <c r="AQ17" s="112"/>
+      <c r="AR17" s="112"/>
+      <c r="AS17" s="112"/>
+      <c r="AT17" s="112"/>
+      <c r="AU17" s="112"/>
+      <c r="AV17" s="112"/>
+      <c r="AW17" s="112"/>
+      <c r="AX17" s="112"/>
+      <c r="AY17" s="112"/>
+      <c r="AZ17" s="112"/>
+      <c r="BA17" s="112"/>
+      <c r="BB17" s="112"/>
+      <c r="BC17" s="112"/>
+      <c r="BD17" s="112"/>
+      <c r="BE17" s="112"/>
+      <c r="BF17" s="112"/>
+      <c r="BG17" s="112"/>
+      <c r="BH17" s="112"/>
+      <c r="BI17" s="112"/>
+      <c r="BJ17" s="112"/>
+      <c r="BK17" s="112"/>
+      <c r="BL17" s="112"/>
+      <c r="BM17" s="112"/>
+      <c r="BN17" s="112"/>
+      <c r="BO17" s="112"/>
+      <c r="BP17" s="112"/>
+      <c r="BQ17" s="112"/>
+      <c r="BR17" s="112"/>
+      <c r="BS17" s="112"/>
+      <c r="BT17" s="112"/>
+      <c r="BU17" s="112"/>
+      <c r="BV17" s="112"/>
+      <c r="BW17" s="112"/>
+      <c r="BX17" s="112"/>
+      <c r="BY17" s="112"/>
+      <c r="BZ17" s="112"/>
+      <c r="CA17" s="112"/>
+      <c r="CB17" s="112"/>
+      <c r="CC17" s="112"/>
+      <c r="CD17" s="112"/>
+      <c r="CE17" s="112"/>
+    </row>
+    <row r="18" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A18" s="106">
+        <v>42415</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="107" t="str">
+        <f>VLOOKUP(B18,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D18" s="107">
+        <f>VLOOKUP(B18,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>270176960</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="47">
+        <v>7490</v>
+      </c>
+      <c r="G18" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H18" s="109">
+        <f t="shared" si="0"/>
+        <v>101115000</v>
+      </c>
+      <c r="I18" s="114"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="112"/>
+      <c r="U18" s="112"/>
+      <c r="V18" s="112"/>
+      <c r="W18" s="112"/>
+      <c r="X18" s="112"/>
+      <c r="Y18" s="112"/>
+      <c r="Z18" s="112"/>
+      <c r="AA18" s="112"/>
+      <c r="AB18" s="112"/>
+      <c r="AC18" s="112"/>
+      <c r="AD18" s="112"/>
+      <c r="AE18" s="112"/>
+      <c r="AF18" s="112"/>
+      <c r="AG18" s="112"/>
+      <c r="AH18" s="112"/>
+      <c r="AI18" s="112"/>
+      <c r="AJ18" s="112"/>
+      <c r="AK18" s="112"/>
+      <c r="AL18" s="112"/>
+      <c r="AM18" s="112"/>
+      <c r="AN18" s="112"/>
+      <c r="AO18" s="112"/>
+      <c r="AP18" s="112"/>
+      <c r="AQ18" s="112"/>
+      <c r="AR18" s="112"/>
+      <c r="AS18" s="112"/>
+      <c r="AT18" s="112"/>
+      <c r="AU18" s="112"/>
+      <c r="AV18" s="112"/>
+      <c r="AW18" s="112"/>
+      <c r="AX18" s="112"/>
+      <c r="AY18" s="112"/>
+      <c r="AZ18" s="112"/>
+      <c r="BA18" s="112"/>
+      <c r="BB18" s="112"/>
+      <c r="BC18" s="112"/>
+      <c r="BD18" s="112"/>
+      <c r="BE18" s="112"/>
+      <c r="BF18" s="112"/>
+      <c r="BG18" s="112"/>
+      <c r="BH18" s="112"/>
+      <c r="BI18" s="112"/>
+      <c r="BJ18" s="112"/>
+      <c r="BK18" s="112"/>
+      <c r="BL18" s="112"/>
+      <c r="BM18" s="112"/>
+      <c r="BN18" s="112"/>
+      <c r="BO18" s="112"/>
+      <c r="BP18" s="112"/>
+      <c r="BQ18" s="112"/>
+      <c r="BR18" s="112"/>
+      <c r="BS18" s="112"/>
+      <c r="BT18" s="112"/>
+      <c r="BU18" s="112"/>
+      <c r="BV18" s="112"/>
+      <c r="BW18" s="112"/>
+      <c r="BX18" s="112"/>
+      <c r="BY18" s="112"/>
+      <c r="BZ18" s="112"/>
+      <c r="CA18" s="112"/>
+      <c r="CB18" s="112"/>
+      <c r="CC18" s="112"/>
+      <c r="CD18" s="112"/>
+      <c r="CE18" s="112"/>
+    </row>
+    <row r="19" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A19" s="106">
+        <v>42419</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="107" t="str">
+        <f>VLOOKUP(B19,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D19" s="107">
+        <f>VLOOKUP(B19,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>270176960</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="47">
+        <v>7790</v>
+      </c>
+      <c r="G19" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H19" s="109">
+        <f t="shared" si="0"/>
+        <v>105165000</v>
+      </c>
+      <c r="I19" s="114"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="112"/>
+      <c r="U19" s="112"/>
+      <c r="V19" s="112"/>
+      <c r="W19" s="112"/>
+      <c r="X19" s="112"/>
+      <c r="Y19" s="112"/>
+      <c r="Z19" s="112"/>
+      <c r="AA19" s="112"/>
+      <c r="AB19" s="112"/>
+      <c r="AC19" s="112"/>
+      <c r="AD19" s="112"/>
+      <c r="AE19" s="112"/>
+      <c r="AF19" s="112"/>
+      <c r="AG19" s="112"/>
+      <c r="AH19" s="112"/>
+      <c r="AI19" s="112"/>
+      <c r="AJ19" s="112"/>
+      <c r="AK19" s="112"/>
+      <c r="AL19" s="112"/>
+      <c r="AM19" s="112"/>
+      <c r="AN19" s="112"/>
+      <c r="AO19" s="112"/>
+      <c r="AP19" s="112"/>
+      <c r="AQ19" s="112"/>
+      <c r="AR19" s="112"/>
+      <c r="AS19" s="112"/>
+      <c r="AT19" s="112"/>
+      <c r="AU19" s="112"/>
+      <c r="AV19" s="112"/>
+      <c r="AW19" s="112"/>
+      <c r="AX19" s="112"/>
+      <c r="AY19" s="112"/>
+      <c r="AZ19" s="112"/>
+      <c r="BA19" s="112"/>
+      <c r="BB19" s="112"/>
+      <c r="BC19" s="112"/>
+      <c r="BD19" s="112"/>
+      <c r="BE19" s="112"/>
+      <c r="BF19" s="112"/>
+      <c r="BG19" s="112"/>
+      <c r="BH19" s="112"/>
+      <c r="BI19" s="112"/>
+      <c r="BJ19" s="112"/>
+      <c r="BK19" s="112"/>
+      <c r="BL19" s="112"/>
+      <c r="BM19" s="112"/>
+      <c r="BN19" s="112"/>
+      <c r="BO19" s="112"/>
+      <c r="BP19" s="112"/>
+      <c r="BQ19" s="112"/>
+      <c r="BR19" s="112"/>
+      <c r="BS19" s="112"/>
+      <c r="BT19" s="112"/>
+      <c r="BU19" s="112"/>
+      <c r="BV19" s="112"/>
+      <c r="BW19" s="112"/>
+      <c r="BX19" s="112"/>
+      <c r="BY19" s="112"/>
+      <c r="BZ19" s="112"/>
+      <c r="CA19" s="112"/>
+      <c r="CB19" s="112"/>
+      <c r="CC19" s="112"/>
+      <c r="CD19" s="112"/>
+      <c r="CE19" s="112"/>
+    </row>
+    <row r="20" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A20" s="106">
+        <v>42419</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="107" t="str">
+        <f>VLOOKUP(B20,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D20" s="107">
+        <f>VLOOKUP(B20,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>270986506</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="47">
+        <v>7894</v>
+      </c>
+      <c r="G20" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H20" s="109">
+        <f t="shared" si="0"/>
+        <v>106569000</v>
+      </c>
+      <c r="I20" s="114"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="112"/>
+      <c r="S20" s="112"/>
+      <c r="T20" s="112"/>
+      <c r="U20" s="112"/>
+      <c r="V20" s="112"/>
+      <c r="W20" s="112"/>
+      <c r="X20" s="112"/>
+      <c r="Y20" s="112"/>
+      <c r="Z20" s="112"/>
+      <c r="AA20" s="112"/>
+      <c r="AB20" s="112"/>
+      <c r="AC20" s="112"/>
+      <c r="AD20" s="112"/>
+      <c r="AE20" s="112"/>
+      <c r="AF20" s="112"/>
+      <c r="AG20" s="112"/>
+      <c r="AH20" s="112"/>
+      <c r="AI20" s="112"/>
+      <c r="AJ20" s="112"/>
+      <c r="AK20" s="112"/>
+      <c r="AL20" s="112"/>
+      <c r="AM20" s="112"/>
+      <c r="AN20" s="112"/>
+      <c r="AO20" s="112"/>
+      <c r="AP20" s="112"/>
+      <c r="AQ20" s="112"/>
+      <c r="AR20" s="112"/>
+      <c r="AS20" s="112"/>
+      <c r="AT20" s="112"/>
+      <c r="AU20" s="112"/>
+      <c r="AV20" s="112"/>
+      <c r="AW20" s="112"/>
+      <c r="AX20" s="112"/>
+      <c r="AY20" s="112"/>
+      <c r="AZ20" s="112"/>
+      <c r="BA20" s="112"/>
+      <c r="BB20" s="112"/>
+      <c r="BC20" s="112"/>
+      <c r="BD20" s="112"/>
+      <c r="BE20" s="112"/>
+      <c r="BF20" s="112"/>
+      <c r="BG20" s="112"/>
+      <c r="BH20" s="112"/>
+      <c r="BI20" s="112"/>
+      <c r="BJ20" s="112"/>
+      <c r="BK20" s="112"/>
+      <c r="BL20" s="112"/>
+      <c r="BM20" s="112"/>
+      <c r="BN20" s="112"/>
+      <c r="BO20" s="112"/>
+      <c r="BP20" s="112"/>
+      <c r="BQ20" s="112"/>
+      <c r="BR20" s="112"/>
+      <c r="BS20" s="112"/>
+      <c r="BT20" s="112"/>
+      <c r="BU20" s="112"/>
+      <c r="BV20" s="112"/>
+      <c r="BW20" s="112"/>
+      <c r="BX20" s="112"/>
+      <c r="BY20" s="112"/>
+      <c r="BZ20" s="112"/>
+      <c r="CA20" s="112"/>
+      <c r="CB20" s="112"/>
+      <c r="CC20" s="112"/>
+      <c r="CD20" s="112"/>
+      <c r="CE20" s="112"/>
+    </row>
+    <row r="21" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A21" s="106">
+        <v>42419</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="107" t="str">
+        <f>VLOOKUP(B21,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D21" s="107">
+        <f>VLOOKUP(B21,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>271181056</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="47">
+        <v>7820</v>
+      </c>
+      <c r="G21" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H21" s="109">
+        <f t="shared" si="0"/>
+        <v>105570000</v>
+      </c>
+      <c r="I21" s="114"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="112"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="112"/>
+      <c r="W21" s="112"/>
+      <c r="X21" s="112"/>
+      <c r="Y21" s="112"/>
+      <c r="Z21" s="112"/>
+      <c r="AA21" s="112"/>
+      <c r="AB21" s="112"/>
+      <c r="AC21" s="112"/>
+      <c r="AD21" s="112"/>
+      <c r="AE21" s="112"/>
+      <c r="AF21" s="112"/>
+      <c r="AG21" s="112"/>
+      <c r="AH21" s="112"/>
+      <c r="AI21" s="112"/>
+      <c r="AJ21" s="112"/>
+      <c r="AK21" s="112"/>
+      <c r="AL21" s="112"/>
+      <c r="AM21" s="112"/>
+      <c r="AN21" s="112"/>
+      <c r="AO21" s="112"/>
+      <c r="AP21" s="112"/>
+      <c r="AQ21" s="112"/>
+      <c r="AR21" s="112"/>
+      <c r="AS21" s="112"/>
+      <c r="AT21" s="112"/>
+      <c r="AU21" s="112"/>
+      <c r="AV21" s="112"/>
+      <c r="AW21" s="112"/>
+      <c r="AX21" s="112"/>
+      <c r="AY21" s="112"/>
+      <c r="AZ21" s="112"/>
+      <c r="BA21" s="112"/>
+      <c r="BB21" s="112"/>
+      <c r="BC21" s="112"/>
+      <c r="BD21" s="112"/>
+      <c r="BE21" s="112"/>
+      <c r="BF21" s="112"/>
+      <c r="BG21" s="112"/>
+      <c r="BH21" s="112"/>
+      <c r="BI21" s="112"/>
+      <c r="BJ21" s="112"/>
+      <c r="BK21" s="112"/>
+      <c r="BL21" s="112"/>
+      <c r="BM21" s="112"/>
+      <c r="BN21" s="112"/>
+      <c r="BO21" s="112"/>
+      <c r="BP21" s="112"/>
+      <c r="BQ21" s="112"/>
+      <c r="BR21" s="112"/>
+      <c r="BS21" s="112"/>
+      <c r="BT21" s="112"/>
+      <c r="BU21" s="112"/>
+      <c r="BV21" s="112"/>
+      <c r="BW21" s="112"/>
+      <c r="BX21" s="112"/>
+      <c r="BY21" s="112"/>
+      <c r="BZ21" s="112"/>
+      <c r="CA21" s="112"/>
+      <c r="CB21" s="112"/>
+      <c r="CC21" s="112"/>
+      <c r="CD21" s="112"/>
+      <c r="CE21" s="112"/>
+    </row>
+    <row r="22" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A22" s="106">
+        <v>42425</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="107" t="str">
+        <f>VLOOKUP(B22,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D22" s="107">
+        <f>VLOOKUP(B22,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>271642418</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="47">
+        <v>7380</v>
+      </c>
+      <c r="G22" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H22" s="109">
+        <f t="shared" si="0"/>
+        <v>99630000</v>
+      </c>
+      <c r="I22" s="114"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="112"/>
+      <c r="W22" s="112"/>
+      <c r="X22" s="112"/>
+      <c r="Y22" s="112"/>
+      <c r="Z22" s="112"/>
+      <c r="AA22" s="112"/>
+      <c r="AB22" s="112"/>
+      <c r="AC22" s="112"/>
+      <c r="AD22" s="112"/>
+      <c r="AE22" s="112"/>
+      <c r="AF22" s="112"/>
+      <c r="AG22" s="112"/>
+      <c r="AH22" s="112"/>
+      <c r="AI22" s="112"/>
+      <c r="AJ22" s="112"/>
+      <c r="AK22" s="112"/>
+      <c r="AL22" s="112"/>
+      <c r="AM22" s="112"/>
+      <c r="AN22" s="112"/>
+      <c r="AO22" s="112"/>
+      <c r="AP22" s="112"/>
+      <c r="AQ22" s="112"/>
+      <c r="AR22" s="112"/>
+      <c r="AS22" s="112"/>
+      <c r="AT22" s="112"/>
+      <c r="AU22" s="112"/>
+      <c r="AV22" s="112"/>
+      <c r="AW22" s="112"/>
+      <c r="AX22" s="112"/>
+      <c r="AY22" s="112"/>
+      <c r="AZ22" s="112"/>
+      <c r="BA22" s="112"/>
+      <c r="BB22" s="112"/>
+      <c r="BC22" s="112"/>
+      <c r="BD22" s="112"/>
+      <c r="BE22" s="112"/>
+      <c r="BF22" s="112"/>
+      <c r="BG22" s="112"/>
+      <c r="BH22" s="112"/>
+      <c r="BI22" s="112"/>
+      <c r="BJ22" s="112"/>
+      <c r="BK22" s="112"/>
+      <c r="BL22" s="112"/>
+      <c r="BM22" s="112"/>
+      <c r="BN22" s="112"/>
+      <c r="BO22" s="112"/>
+      <c r="BP22" s="112"/>
+      <c r="BQ22" s="112"/>
+      <c r="BR22" s="112"/>
+      <c r="BS22" s="112"/>
+      <c r="BT22" s="112"/>
+      <c r="BU22" s="112"/>
+      <c r="BV22" s="112"/>
+      <c r="BW22" s="112"/>
+      <c r="BX22" s="112"/>
+      <c r="BY22" s="112"/>
+      <c r="BZ22" s="112"/>
+      <c r="CA22" s="112"/>
+      <c r="CB22" s="112"/>
+      <c r="CC22" s="112"/>
+      <c r="CD22" s="112"/>
+      <c r="CE22" s="112"/>
+    </row>
+    <row r="23" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A23" s="106">
+        <v>42425</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="107" t="str">
+        <f>VLOOKUP(B23,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D23" s="107">
+        <f>VLOOKUP(B23,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>273249576</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="47">
+        <v>7790</v>
+      </c>
+      <c r="G23" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H23" s="109">
+        <f t="shared" si="0"/>
+        <v>105165000</v>
+      </c>
+      <c r="I23" s="114"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="112"/>
+      <c r="Z23" s="112"/>
+      <c r="AA23" s="112"/>
+      <c r="AB23" s="112"/>
+      <c r="AC23" s="112"/>
+      <c r="AD23" s="112"/>
+      <c r="AE23" s="112"/>
+      <c r="AF23" s="112"/>
+      <c r="AG23" s="112"/>
+      <c r="AH23" s="112"/>
+      <c r="AI23" s="112"/>
+      <c r="AJ23" s="112"/>
+      <c r="AK23" s="112"/>
+      <c r="AL23" s="112"/>
+      <c r="AM23" s="112"/>
+      <c r="AN23" s="112"/>
+      <c r="AO23" s="112"/>
+      <c r="AP23" s="112"/>
+      <c r="AQ23" s="112"/>
+      <c r="AR23" s="112"/>
+      <c r="AS23" s="112"/>
+      <c r="AT23" s="112"/>
+      <c r="AU23" s="112"/>
+      <c r="AV23" s="112"/>
+      <c r="AW23" s="112"/>
+      <c r="AX23" s="112"/>
+      <c r="AY23" s="112"/>
+      <c r="AZ23" s="112"/>
+      <c r="BA23" s="112"/>
+      <c r="BB23" s="112"/>
+      <c r="BC23" s="112"/>
+      <c r="BD23" s="112"/>
+      <c r="BE23" s="112"/>
+      <c r="BF23" s="112"/>
+      <c r="BG23" s="112"/>
+      <c r="BH23" s="112"/>
+      <c r="BI23" s="112"/>
+      <c r="BJ23" s="112"/>
+      <c r="BK23" s="112"/>
+      <c r="BL23" s="112"/>
+      <c r="BM23" s="112"/>
+      <c r="BN23" s="112"/>
+      <c r="BO23" s="112"/>
+      <c r="BP23" s="112"/>
+      <c r="BQ23" s="112"/>
+      <c r="BR23" s="112"/>
+      <c r="BS23" s="112"/>
+      <c r="BT23" s="112"/>
+      <c r="BU23" s="112"/>
+      <c r="BV23" s="112"/>
+      <c r="BW23" s="112"/>
+      <c r="BX23" s="112"/>
+      <c r="BY23" s="112"/>
+      <c r="BZ23" s="112"/>
+      <c r="CA23" s="112"/>
+      <c r="CB23" s="112"/>
+      <c r="CC23" s="112"/>
+      <c r="CD23" s="112"/>
+      <c r="CE23" s="112"/>
+    </row>
+    <row r="24" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A24" s="106">
+        <v>42425</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="107" t="str">
+        <f>VLOOKUP(B24,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D24" s="107">
+        <f>VLOOKUP(B24,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>260850613</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="47">
+        <v>7380</v>
+      </c>
+      <c r="G24" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H24" s="109">
+        <f t="shared" si="0"/>
+        <v>99630000</v>
+      </c>
+      <c r="I24" s="114"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
+      <c r="X24" s="112"/>
+      <c r="Y24" s="112"/>
+      <c r="Z24" s="112"/>
+      <c r="AA24" s="112"/>
+      <c r="AB24" s="112"/>
+      <c r="AC24" s="112"/>
+      <c r="AD24" s="112"/>
+      <c r="AE24" s="112"/>
+      <c r="AF24" s="112"/>
+      <c r="AG24" s="112"/>
+      <c r="AH24" s="112"/>
+      <c r="AI24" s="112"/>
+      <c r="AJ24" s="112"/>
+      <c r="AK24" s="112"/>
+      <c r="AL24" s="112"/>
+      <c r="AM24" s="112"/>
+      <c r="AN24" s="112"/>
+      <c r="AO24" s="112"/>
+      <c r="AP24" s="112"/>
+      <c r="AQ24" s="112"/>
+      <c r="AR24" s="112"/>
+      <c r="AS24" s="112"/>
+      <c r="AT24" s="112"/>
+      <c r="AU24" s="112"/>
+      <c r="AV24" s="112"/>
+      <c r="AW24" s="112"/>
+      <c r="AX24" s="112"/>
+      <c r="AY24" s="112"/>
+      <c r="AZ24" s="112"/>
+      <c r="BA24" s="112"/>
+      <c r="BB24" s="112"/>
+      <c r="BC24" s="112"/>
+      <c r="BD24" s="112"/>
+      <c r="BE24" s="112"/>
+      <c r="BF24" s="112"/>
+      <c r="BG24" s="112"/>
+      <c r="BH24" s="112"/>
+      <c r="BI24" s="112"/>
+      <c r="BJ24" s="112"/>
+      <c r="BK24" s="112"/>
+      <c r="BL24" s="112"/>
+      <c r="BM24" s="112"/>
+      <c r="BN24" s="112"/>
+      <c r="BO24" s="112"/>
+      <c r="BP24" s="112"/>
+      <c r="BQ24" s="112"/>
+      <c r="BR24" s="112"/>
+      <c r="BS24" s="112"/>
+      <c r="BT24" s="112"/>
+      <c r="BU24" s="112"/>
+      <c r="BV24" s="112"/>
+      <c r="BW24" s="112"/>
+      <c r="BX24" s="112"/>
+      <c r="BY24" s="112"/>
+      <c r="BZ24" s="112"/>
+      <c r="CA24" s="112"/>
+      <c r="CB24" s="112"/>
+      <c r="CC24" s="112"/>
+      <c r="CD24" s="112"/>
+      <c r="CE24" s="112"/>
+    </row>
+    <row r="25" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A25" s="106">
+        <v>42429</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="107" t="str">
+        <f>VLOOKUP(B25,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Thanh Hải - Bình Thuận</v>
+      </c>
+      <c r="D25" s="107">
+        <f>VLOOKUP(B25,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>261005222</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="47">
+        <v>7950</v>
+      </c>
+      <c r="G25" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H25" s="109">
+        <f t="shared" si="0"/>
+        <v>107325000</v>
+      </c>
+      <c r="I25" s="114"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="112"/>
+      <c r="W25" s="112"/>
+      <c r="X25" s="112"/>
+      <c r="Y25" s="112"/>
+      <c r="Z25" s="112"/>
+      <c r="AA25" s="112"/>
+      <c r="AB25" s="112"/>
+      <c r="AC25" s="112"/>
+      <c r="AD25" s="112"/>
+      <c r="AE25" s="112"/>
+      <c r="AF25" s="112"/>
+      <c r="AG25" s="112"/>
+      <c r="AH25" s="112"/>
+      <c r="AI25" s="112"/>
+      <c r="AJ25" s="112"/>
+      <c r="AK25" s="112"/>
+      <c r="AL25" s="112"/>
+      <c r="AM25" s="112"/>
+      <c r="AN25" s="112"/>
+      <c r="AO25" s="112"/>
+      <c r="AP25" s="112"/>
+      <c r="AQ25" s="112"/>
+      <c r="AR25" s="112"/>
+      <c r="AS25" s="112"/>
+      <c r="AT25" s="112"/>
+      <c r="AU25" s="112"/>
+      <c r="AV25" s="112"/>
+      <c r="AW25" s="112"/>
+      <c r="AX25" s="112"/>
+      <c r="AY25" s="112"/>
+      <c r="AZ25" s="112"/>
+      <c r="BA25" s="112"/>
+      <c r="BB25" s="112"/>
+      <c r="BC25" s="112"/>
+      <c r="BD25" s="112"/>
+      <c r="BE25" s="112"/>
+      <c r="BF25" s="112"/>
+      <c r="BG25" s="112"/>
+      <c r="BH25" s="112"/>
+      <c r="BI25" s="112"/>
+      <c r="BJ25" s="112"/>
+      <c r="BK25" s="112"/>
+      <c r="BL25" s="112"/>
+      <c r="BM25" s="112"/>
+      <c r="BN25" s="112"/>
+      <c r="BO25" s="112"/>
+      <c r="BP25" s="112"/>
+      <c r="BQ25" s="112"/>
+      <c r="BR25" s="112"/>
+      <c r="BS25" s="112"/>
+      <c r="BT25" s="112"/>
+      <c r="BU25" s="112"/>
+      <c r="BV25" s="112"/>
+      <c r="BW25" s="112"/>
+      <c r="BX25" s="112"/>
+      <c r="BY25" s="112"/>
+      <c r="BZ25" s="112"/>
+      <c r="CA25" s="112"/>
+      <c r="CB25" s="112"/>
+      <c r="CC25" s="112"/>
+      <c r="CD25" s="112"/>
+      <c r="CE25" s="112"/>
+    </row>
+    <row r="26" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A26" s="106">
+        <v>42429</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="107" t="str">
+        <f>VLOOKUP(B26,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D26" s="107">
+        <f>VLOOKUP(B26,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>270176960</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="47">
+        <v>7840</v>
+      </c>
+      <c r="G26" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H26" s="109">
+        <f t="shared" si="0"/>
+        <v>105840000</v>
+      </c>
+      <c r="I26" s="114"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="112"/>
+      <c r="Y26" s="112"/>
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="112"/>
+      <c r="AB26" s="112"/>
+      <c r="AC26" s="112"/>
+      <c r="AD26" s="112"/>
+      <c r="AE26" s="112"/>
+      <c r="AF26" s="112"/>
+      <c r="AG26" s="112"/>
+      <c r="AH26" s="112"/>
+      <c r="AI26" s="112"/>
+      <c r="AJ26" s="112"/>
+      <c r="AK26" s="112"/>
+      <c r="AL26" s="112"/>
+      <c r="AM26" s="112"/>
+      <c r="AN26" s="112"/>
+      <c r="AO26" s="112"/>
+      <c r="AP26" s="112"/>
+      <c r="AQ26" s="112"/>
+      <c r="AR26" s="112"/>
+      <c r="AS26" s="112"/>
+      <c r="AT26" s="112"/>
+      <c r="AU26" s="112"/>
+      <c r="AV26" s="112"/>
+      <c r="AW26" s="112"/>
+      <c r="AX26" s="112"/>
+      <c r="AY26" s="112"/>
+      <c r="AZ26" s="112"/>
+      <c r="BA26" s="112"/>
+      <c r="BB26" s="112"/>
+      <c r="BC26" s="112"/>
+      <c r="BD26" s="112"/>
+      <c r="BE26" s="112"/>
+      <c r="BF26" s="112"/>
+      <c r="BG26" s="112"/>
+      <c r="BH26" s="112"/>
+      <c r="BI26" s="112"/>
+      <c r="BJ26" s="112"/>
+      <c r="BK26" s="112"/>
+      <c r="BL26" s="112"/>
+      <c r="BM26" s="112"/>
+      <c r="BN26" s="112"/>
+      <c r="BO26" s="112"/>
+      <c r="BP26" s="112"/>
+      <c r="BQ26" s="112"/>
+      <c r="BR26" s="112"/>
+      <c r="BS26" s="112"/>
+      <c r="BT26" s="112"/>
+      <c r="BU26" s="112"/>
+      <c r="BV26" s="112"/>
+      <c r="BW26" s="112"/>
+      <c r="BX26" s="112"/>
+      <c r="BY26" s="112"/>
+      <c r="BZ26" s="112"/>
+      <c r="CA26" s="112"/>
+      <c r="CB26" s="112"/>
+      <c r="CC26" s="112"/>
+      <c r="CD26" s="112"/>
+      <c r="CE26" s="112"/>
+    </row>
+    <row r="27" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A27" s="106">
+        <v>42429</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="107" t="str">
+        <f>VLOOKUP(B27,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D27" s="107">
+        <f>VLOOKUP(B27,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>271181056</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="47">
+        <v>7740</v>
+      </c>
+      <c r="G27" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H27" s="109">
+        <f t="shared" si="0"/>
+        <v>104490000</v>
+      </c>
+      <c r="I27" s="114"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="112"/>
+      <c r="W27" s="112"/>
+      <c r="X27" s="112"/>
+      <c r="Y27" s="112"/>
+      <c r="Z27" s="112"/>
+      <c r="AA27" s="112"/>
+      <c r="AB27" s="112"/>
+      <c r="AC27" s="112"/>
+      <c r="AD27" s="112"/>
+      <c r="AE27" s="112"/>
+      <c r="AF27" s="112"/>
+      <c r="AG27" s="112"/>
+      <c r="AH27" s="112"/>
+      <c r="AI27" s="112"/>
+      <c r="AJ27" s="112"/>
+      <c r="AK27" s="112"/>
+      <c r="AL27" s="112"/>
+      <c r="AM27" s="112"/>
+      <c r="AN27" s="112"/>
+      <c r="AO27" s="112"/>
+      <c r="AP27" s="112"/>
+      <c r="AQ27" s="112"/>
+      <c r="AR27" s="112"/>
+      <c r="AS27" s="112"/>
+      <c r="AT27" s="112"/>
+      <c r="AU27" s="112"/>
+      <c r="AV27" s="112"/>
+      <c r="AW27" s="112"/>
+      <c r="AX27" s="112"/>
+      <c r="AY27" s="112"/>
+      <c r="AZ27" s="112"/>
+      <c r="BA27" s="112"/>
+      <c r="BB27" s="112"/>
+      <c r="BC27" s="112"/>
+      <c r="BD27" s="112"/>
+      <c r="BE27" s="112"/>
+      <c r="BF27" s="112"/>
+      <c r="BG27" s="112"/>
+      <c r="BH27" s="112"/>
+      <c r="BI27" s="112"/>
+      <c r="BJ27" s="112"/>
+      <c r="BK27" s="112"/>
+      <c r="BL27" s="112"/>
+      <c r="BM27" s="112"/>
+      <c r="BN27" s="112"/>
+      <c r="BO27" s="112"/>
+      <c r="BP27" s="112"/>
+      <c r="BQ27" s="112"/>
+      <c r="BR27" s="112"/>
+      <c r="BS27" s="112"/>
+      <c r="BT27" s="112"/>
+      <c r="BU27" s="112"/>
+      <c r="BV27" s="112"/>
+      <c r="BW27" s="112"/>
+      <c r="BX27" s="112"/>
+      <c r="BY27" s="112"/>
+      <c r="BZ27" s="112"/>
+      <c r="CA27" s="112"/>
+      <c r="CB27" s="112"/>
+      <c r="CC27" s="112"/>
+      <c r="CD27" s="112"/>
+      <c r="CE27" s="112"/>
+    </row>
+    <row r="28" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A28" s="106">
+        <v>42432</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="107" t="str">
+        <f>VLOOKUP(B28,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D28" s="107">
+        <f>VLOOKUP(B28,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>273249576</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="47">
+        <v>7540</v>
+      </c>
+      <c r="G28" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H28" s="109">
+        <f t="shared" si="0"/>
+        <v>101790000</v>
+      </c>
+      <c r="I28" s="114"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="112"/>
+      <c r="V28" s="112"/>
+      <c r="W28" s="112"/>
+      <c r="X28" s="112"/>
+      <c r="Y28" s="112"/>
+      <c r="Z28" s="112"/>
+      <c r="AA28" s="112"/>
+      <c r="AB28" s="112"/>
+      <c r="AC28" s="112"/>
+      <c r="AD28" s="112"/>
+      <c r="AE28" s="112"/>
+      <c r="AF28" s="112"/>
+      <c r="AG28" s="112"/>
+      <c r="AH28" s="112"/>
+      <c r="AI28" s="112"/>
+      <c r="AJ28" s="112"/>
+      <c r="AK28" s="112"/>
+      <c r="AL28" s="112"/>
+      <c r="AM28" s="112"/>
+      <c r="AN28" s="112"/>
+      <c r="AO28" s="112"/>
+      <c r="AP28" s="112"/>
+      <c r="AQ28" s="112"/>
+      <c r="AR28" s="112"/>
+      <c r="AS28" s="112"/>
+      <c r="AT28" s="112"/>
+      <c r="AU28" s="112"/>
+      <c r="AV28" s="112"/>
+      <c r="AW28" s="112"/>
+      <c r="AX28" s="112"/>
+      <c r="AY28" s="112"/>
+      <c r="AZ28" s="112"/>
+      <c r="BA28" s="112"/>
+      <c r="BB28" s="112"/>
+      <c r="BC28" s="112"/>
+      <c r="BD28" s="112"/>
+      <c r="BE28" s="112"/>
+      <c r="BF28" s="112"/>
+      <c r="BG28" s="112"/>
+      <c r="BH28" s="112"/>
+      <c r="BI28" s="112"/>
+      <c r="BJ28" s="112"/>
+      <c r="BK28" s="112"/>
+      <c r="BL28" s="112"/>
+      <c r="BM28" s="112"/>
+      <c r="BN28" s="112"/>
+      <c r="BO28" s="112"/>
+      <c r="BP28" s="112"/>
+      <c r="BQ28" s="112"/>
+      <c r="BR28" s="112"/>
+      <c r="BS28" s="112"/>
+      <c r="BT28" s="112"/>
+      <c r="BU28" s="112"/>
+      <c r="BV28" s="112"/>
+      <c r="BW28" s="112"/>
+      <c r="BX28" s="112"/>
+      <c r="BY28" s="112"/>
+      <c r="BZ28" s="112"/>
+      <c r="CA28" s="112"/>
+      <c r="CB28" s="112"/>
+      <c r="CC28" s="112"/>
+      <c r="CD28" s="112"/>
+      <c r="CE28" s="112"/>
+    </row>
+    <row r="29" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A29" s="106">
+        <v>42432</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="107" t="str">
+        <f>VLOOKUP(B29,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D29" s="107">
+        <f>VLOOKUP(B29,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>271642418</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="47">
+        <v>7260</v>
+      </c>
+      <c r="G29" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H29" s="109">
+        <f t="shared" ref="H29" si="1">F29*G29</f>
+        <v>98010000</v>
+      </c>
+      <c r="I29" s="114"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="112"/>
+      <c r="W29" s="112"/>
+      <c r="X29" s="112"/>
+      <c r="Y29" s="112"/>
+      <c r="Z29" s="112"/>
+      <c r="AA29" s="112"/>
+      <c r="AB29" s="112"/>
+      <c r="AC29" s="112"/>
+      <c r="AD29" s="112"/>
+      <c r="AE29" s="112"/>
+      <c r="AF29" s="112"/>
+      <c r="AG29" s="112"/>
+      <c r="AH29" s="112"/>
+      <c r="AI29" s="112"/>
+      <c r="AJ29" s="112"/>
+      <c r="AK29" s="112"/>
+      <c r="AL29" s="112"/>
+      <c r="AM29" s="112"/>
+      <c r="AN29" s="112"/>
+      <c r="AO29" s="112"/>
+      <c r="AP29" s="112"/>
+      <c r="AQ29" s="112"/>
+      <c r="AR29" s="112"/>
+      <c r="AS29" s="112"/>
+      <c r="AT29" s="112"/>
+      <c r="AU29" s="112"/>
+      <c r="AV29" s="112"/>
+      <c r="AW29" s="112"/>
+      <c r="AX29" s="112"/>
+      <c r="AY29" s="112"/>
+      <c r="AZ29" s="112"/>
+      <c r="BA29" s="112"/>
+      <c r="BB29" s="112"/>
+      <c r="BC29" s="112"/>
+      <c r="BD29" s="112"/>
+      <c r="BE29" s="112"/>
+      <c r="BF29" s="112"/>
+      <c r="BG29" s="112"/>
+      <c r="BH29" s="112"/>
+      <c r="BI29" s="112"/>
+      <c r="BJ29" s="112"/>
+      <c r="BK29" s="112"/>
+      <c r="BL29" s="112"/>
+      <c r="BM29" s="112"/>
+      <c r="BN29" s="112"/>
+      <c r="BO29" s="112"/>
+      <c r="BP29" s="112"/>
+      <c r="BQ29" s="112"/>
+      <c r="BR29" s="112"/>
+      <c r="BS29" s="112"/>
+      <c r="BT29" s="112"/>
+      <c r="BU29" s="112"/>
+      <c r="BV29" s="112"/>
+      <c r="BW29" s="112"/>
+      <c r="BX29" s="112"/>
+      <c r="BY29" s="112"/>
+      <c r="BZ29" s="112"/>
+      <c r="CA29" s="112"/>
+      <c r="CB29" s="112"/>
+      <c r="CC29" s="112"/>
+      <c r="CD29" s="112"/>
+      <c r="CE29" s="112"/>
+    </row>
+    <row r="30" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A30" s="106">
+        <v>42432</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="107" t="str">
+        <f>VLOOKUP(B30,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D30" s="107">
+        <f>VLOOKUP(B30,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>270176684</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="47">
+        <v>7410</v>
+      </c>
+      <c r="G30" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H30" s="109">
+        <f t="shared" si="0"/>
+        <v>100035000</v>
+      </c>
+      <c r="I30" s="114"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="112"/>
+      <c r="V30" s="112"/>
+      <c r="W30" s="112"/>
+      <c r="X30" s="112"/>
+      <c r="Y30" s="112"/>
+      <c r="Z30" s="112"/>
+      <c r="AA30" s="112"/>
+      <c r="AB30" s="112"/>
+      <c r="AC30" s="112"/>
+      <c r="AD30" s="112"/>
+      <c r="AE30" s="112"/>
+      <c r="AF30" s="112"/>
+      <c r="AG30" s="112"/>
+      <c r="AH30" s="112"/>
+      <c r="AI30" s="112"/>
+      <c r="AJ30" s="112"/>
+      <c r="AK30" s="112"/>
+      <c r="AL30" s="112"/>
+      <c r="AM30" s="112"/>
+      <c r="AN30" s="112"/>
+      <c r="AO30" s="112"/>
+      <c r="AP30" s="112"/>
+      <c r="AQ30" s="112"/>
+      <c r="AR30" s="112"/>
+      <c r="AS30" s="112"/>
+      <c r="AT30" s="112"/>
+      <c r="AU30" s="112"/>
+      <c r="AV30" s="112"/>
+      <c r="AW30" s="112"/>
+      <c r="AX30" s="112"/>
+      <c r="AY30" s="112"/>
+      <c r="AZ30" s="112"/>
+      <c r="BA30" s="112"/>
+      <c r="BB30" s="112"/>
+      <c r="BC30" s="112"/>
+      <c r="BD30" s="112"/>
+      <c r="BE30" s="112"/>
+      <c r="BF30" s="112"/>
+      <c r="BG30" s="112"/>
+      <c r="BH30" s="112"/>
+      <c r="BI30" s="112"/>
+      <c r="BJ30" s="112"/>
+      <c r="BK30" s="112"/>
+      <c r="BL30" s="112"/>
+      <c r="BM30" s="112"/>
+      <c r="BN30" s="112"/>
+      <c r="BO30" s="112"/>
+      <c r="BP30" s="112"/>
+      <c r="BQ30" s="112"/>
+      <c r="BR30" s="112"/>
+      <c r="BS30" s="112"/>
+      <c r="BT30" s="112"/>
+      <c r="BU30" s="112"/>
+      <c r="BV30" s="112"/>
+      <c r="BW30" s="112"/>
+      <c r="BX30" s="112"/>
+      <c r="BY30" s="112"/>
+      <c r="BZ30" s="112"/>
+      <c r="CA30" s="112"/>
+      <c r="CB30" s="112"/>
+      <c r="CC30" s="112"/>
+      <c r="CD30" s="112"/>
+      <c r="CE30" s="112"/>
+    </row>
+    <row r="31" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A31" s="106">
+        <v>42432</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="107" t="str">
+        <f>VLOOKUP(B31,[26]Vine!$A$5:$F$178,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D31" s="107">
+        <f>VLOOKUP(B31,[26]Vine!$A$5:$F$178,2,0)</f>
+        <v>270176960</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="47">
+        <f>137500-SUM(F14:F30)</f>
+        <v>7573</v>
+      </c>
+      <c r="G31" s="108">
+        <v>13500</v>
+      </c>
+      <c r="H31" s="109">
+        <f t="shared" si="0"/>
+        <v>102235500</v>
+      </c>
+      <c r="I31" s="114"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="112"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="112"/>
+      <c r="W31" s="112"/>
+      <c r="X31" s="112"/>
+      <c r="Y31" s="112"/>
+      <c r="Z31" s="112"/>
+      <c r="AA31" s="112"/>
+      <c r="AB31" s="112"/>
+      <c r="AC31" s="112"/>
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="112"/>
+      <c r="AF31" s="112"/>
+      <c r="AG31" s="112"/>
+      <c r="AH31" s="112"/>
+      <c r="AI31" s="112"/>
+      <c r="AJ31" s="112"/>
+      <c r="AK31" s="112"/>
+      <c r="AL31" s="112"/>
+      <c r="AM31" s="112"/>
+      <c r="AN31" s="112"/>
+      <c r="AO31" s="112"/>
+      <c r="AP31" s="112"/>
+      <c r="AQ31" s="112"/>
+      <c r="AR31" s="112"/>
+      <c r="AS31" s="112"/>
+      <c r="AT31" s="112"/>
+      <c r="AU31" s="112"/>
+      <c r="AV31" s="112"/>
+      <c r="AW31" s="112"/>
+      <c r="AX31" s="112"/>
+      <c r="AY31" s="112"/>
+      <c r="AZ31" s="112"/>
+      <c r="BA31" s="112"/>
+      <c r="BB31" s="112"/>
+      <c r="BC31" s="112"/>
+      <c r="BD31" s="112"/>
+      <c r="BE31" s="112"/>
+      <c r="BF31" s="112"/>
+      <c r="BG31" s="112"/>
+      <c r="BH31" s="112"/>
+      <c r="BI31" s="112"/>
+      <c r="BJ31" s="112"/>
+      <c r="BK31" s="112"/>
+      <c r="BL31" s="112"/>
+      <c r="BM31" s="112"/>
+      <c r="BN31" s="112"/>
+      <c r="BO31" s="112"/>
+      <c r="BP31" s="112"/>
+      <c r="BQ31" s="112"/>
+      <c r="BR31" s="112"/>
+      <c r="BS31" s="112"/>
+      <c r="BT31" s="112"/>
+      <c r="BU31" s="112"/>
+      <c r="BV31" s="112"/>
+      <c r="BW31" s="112"/>
+      <c r="BX31" s="112"/>
+      <c r="BY31" s="112"/>
+      <c r="BZ31" s="112"/>
+      <c r="CA31" s="112"/>
+      <c r="CB31" s="112"/>
+      <c r="CC31" s="112"/>
+      <c r="CD31" s="112"/>
+      <c r="CE31" s="112"/>
+    </row>
+    <row r="32" spans="1:83" s="113" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A32" s="106"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="112"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="112"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="112"/>
+      <c r="W32" s="112"/>
+      <c r="X32" s="112"/>
+      <c r="Y32" s="112"/>
+      <c r="Z32" s="112"/>
+      <c r="AA32" s="112"/>
+      <c r="AB32" s="112"/>
+      <c r="AC32" s="112"/>
+      <c r="AD32" s="112"/>
+      <c r="AE32" s="112"/>
+      <c r="AF32" s="112"/>
+      <c r="AG32" s="112"/>
+      <c r="AH32" s="112"/>
+      <c r="AI32" s="112"/>
+      <c r="AJ32" s="112"/>
+      <c r="AK32" s="112"/>
+      <c r="AL32" s="112"/>
+      <c r="AM32" s="112"/>
+      <c r="AN32" s="112"/>
+      <c r="AO32" s="112"/>
+      <c r="AP32" s="112"/>
+      <c r="AQ32" s="112"/>
+      <c r="AR32" s="112"/>
+      <c r="AS32" s="112"/>
+      <c r="AT32" s="112"/>
+      <c r="AU32" s="112"/>
+      <c r="AV32" s="112"/>
+      <c r="AW32" s="112"/>
+      <c r="AX32" s="112"/>
+      <c r="AY32" s="112"/>
+      <c r="AZ32" s="112"/>
+      <c r="BA32" s="112"/>
+      <c r="BB32" s="112"/>
+      <c r="BC32" s="112"/>
+      <c r="BD32" s="112"/>
+      <c r="BE32" s="112"/>
+      <c r="BF32" s="112"/>
+      <c r="BG32" s="112"/>
+      <c r="BH32" s="112"/>
+      <c r="BI32" s="112"/>
+      <c r="BJ32" s="112"/>
+      <c r="BK32" s="112"/>
+      <c r="BL32" s="112"/>
+      <c r="BM32" s="112"/>
+      <c r="BN32" s="112"/>
+      <c r="BO32" s="112"/>
+      <c r="BP32" s="112"/>
+      <c r="BQ32" s="112"/>
+      <c r="BR32" s="112"/>
+      <c r="BS32" s="112"/>
+      <c r="BT32" s="112"/>
+      <c r="BU32" s="112"/>
+      <c r="BV32" s="112"/>
+      <c r="BW32" s="112"/>
+      <c r="BX32" s="112"/>
+      <c r="BY32" s="112"/>
+      <c r="BZ32" s="112"/>
+      <c r="CA32" s="112"/>
+      <c r="CB32" s="112"/>
+      <c r="CC32" s="112"/>
+      <c r="CD32" s="112"/>
+      <c r="CE32" s="112"/>
+    </row>
+    <row r="33" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A33" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="115">
+        <f>SUM(H14:H32)</f>
+        <v>1856250000</v>
+      </c>
+      <c r="D33" s="115"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1">
+      <c r="C34" s="116"/>
+      <c r="D34" s="89"/>
+      <c r="G34" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="B35" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="120" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="121" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="122"/>
+      <c r="G36" s="123" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="B37" s="121"/>
+      <c r="D37" s="122"/>
+      <c r="G37" s="123"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="B38" s="121"/>
+      <c r="D38" s="122"/>
+      <c r="G38" s="123"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" s="121"/>
+      <c r="D39" s="122"/>
+      <c r="G39" s="123"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="B40" s="121"/>
+      <c r="D40" s="122"/>
+      <c r="G40" s="123"/>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B41" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="124"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="126" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A44" s="127" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="128"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
+    </row>
+    <row r="45" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A45" s="127" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="127"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="127"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="H1:I4"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:E6 F6">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Döõ lieäu sai"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="0.23" bottom="0.16" header="0.2" footer="0.16"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>